--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_273.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_273.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32530-d217221-Reviews-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>152</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-Irvine-Spectrum.h119075.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_273.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_273.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="709">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2008 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r591754653-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>32530</t>
+  </si>
+  <si>
+    <t>217221</t>
+  </si>
+  <si>
+    <t>591754653</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Great service and very helpful staff</t>
+  </si>
+  <si>
+    <t>very comfortable stay Rosie and Joselyn where very friendly and a great help with all of my needs. Hotel is freeway close as well as there is a shopping center within walking distance if you are traveling without a car as well as a Starbucks right next doorMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>very comfortable stay Rosie and Joselyn where very friendly and a great help with all of my needs. Hotel is freeway close as well as there is a shopping center within walking distance if you are traveling without a car as well as a Starbucks right next doorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r589763478-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>589763478</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Great place for families with small children</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay! Staff was personable and accommodating  The location is perfect for shopping since it's across the Irvine spectrum. Really loved the huge fridge and microwave since I need to store milk and sterilize baby bottles. It was so convenient to have all those ammentities. The hotel was also clean and spacious. Will definitely stay here next time we come to ca.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay! Staff was personable and accommodating  The location is perfect for shopping since it's across the Irvine spectrum. Really loved the huge fridge and microwave since I need to store milk and sterilize baby bottles. It was so convenient to have all those ammentities. The hotel was also clean and spacious. Will definitely stay here next time we come to ca.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r589591285-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>589591285</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>A couple of friends and I stayed at Extended Stay America for a concert and it was an amazing and relaxing stay. Ditta and Joss made the stay welcoming and enjoyable, they were extremely nice and helpful. Every time I asked for more dishes and towels, they were quick and nice. I definitely will have this hotel in mind when I plan more trips nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>A couple of friends and I stayed at Extended Stay America for a concert and it was an amazing and relaxing stay. Ditta and Joss made the stay welcoming and enjoyable, they were extremely nice and helpful. Every time I asked for more dishes and towels, they were quick and nice. I definitely will have this hotel in mind when I plan more trips nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r584351527-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>584351527</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Curry smells throughout this nasty old hotel</t>
+  </si>
+  <si>
+    <t>This hotel looks fine from the outside, but inside it is old, outdated, disgustingly smelly, and more like a cheap dorm than a real hotel. It is FAR below the standard for any reasonable hotel in this area and price range, and should have been completely renovated long ago. The rooms have sad old furniture, the hallways smell of curry throughout (apparently many residents are cooking in their rooms), the hallway carpets are disgusting, the walls let even quiet conversations in the adjacent room through ... . This is a terrible hotel. I checked out three days early and moved to a FAR better hotel (the Wyndham Irvine) at the same rate. I will never come back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel looks fine from the outside, but inside it is old, outdated, disgustingly smelly, and more like a cheap dorm than a real hotel. It is FAR below the standard for any reasonable hotel in this area and price range, and should have been completely renovated long ago. The rooms have sad old furniture, the hallways smell of curry throughout (apparently many residents are cooking in their rooms), the hallway carpets are disgusting, the walls let even quiet conversations in the adjacent room through ... . This is a terrible hotel. I checked out three days early and moved to a FAR better hotel (the Wyndham Irvine) at the same rate. I will never come back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r582730178-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>582730178</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Amazing hotel and a great place to stay, especially long term</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed at Extended Stay America in Irvine from around December or January until today, so around 5-6 months. We were extremely satisfied with the service, room, and environment. 7/11 was a two minute walk from our room which was another huge plus. This was the first time we’ve stayed at a hotel this long, and I am very happy we chose this one. The staff was very friendly, the coffee and muffins at the front desk were great every morning, and everything was very comfortable. I was able to connect an Apple TV in the room after paying for high speed internet and it worked extremely well 24/7. We hope to come back again and would definitely recommend it to anyone. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed at Extended Stay America in Irvine from around December or January until today, so around 5-6 months. We were extremely satisfied with the service, room, and environment. 7/11 was a two minute walk from our room which was another huge plus. This was the first time we’ve stayed at a hotel this long, and I am very happy we chose this one. The staff was very friendly, the coffee and muffins at the front desk were great every morning, and everything was very comfortable. I was able to connect an Apple TV in the room after paying for high speed internet and it worked extremely well 24/7. We hope to come back again and would definitely recommend it to anyone. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r578693889-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>578693889</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Disappointingly Dirty and Lacking</t>
+  </si>
+  <si>
+    <t>We checked into rm 115 and the room was reasonably clean looking superficially, but then one of the night stand lights did not turn on, and in checking to make sure it was plugged in the dirt and dust (at least 5 -15 years worth) was on the carpet under the bed and behind night stand and along the side of the wall. Then it seemed so dirty I checked the sheets and there was black lint and some long black hairs in them. I picked them out and went to sleep because I was exhausted. In the morning the bath/shower drain would not drain. I asked to change rooms the next day. Staff were friendly and accommodating. My sister and I went into rm 154. The room initially seemed cleaner, but on closer inspection, it also was not clean, there were no plastic cups or shampoo, and the blow dryer did not work and the air conditioner did not cool down the room. Also the bathroom facet was about to come off the sink. We told the office staff both days and they were nice, and said that they are available 24/7. But after we changed rooms, the first girl told us they can only change rooms in the morning and it depends on availability. Plus each morning the staff was out of the office for 5-10 minute (apparently there is only one staff member at the front desk)...We checked into rm 115 and the room was reasonably clean looking superficially, but then one of the night stand lights did not turn on, and in checking to make sure it was plugged in the dirt and dust (at least 5 -15 years worth) was on the carpet under the bed and behind night stand and along the side of the wall. Then it seemed so dirty I checked the sheets and there was black lint and some long black hairs in them. I picked them out and went to sleep because I was exhausted. In the morning the bath/shower drain would not drain. I asked to change rooms the next day. Staff were friendly and accommodating. My sister and I went into rm 154. The room initially seemed cleaner, but on closer inspection, it also was not clean, there were no plastic cups or shampoo, and the blow dryer did not work and the air conditioner did not cool down the room. Also the bathroom facet was about to come off the sink. We told the office staff both days and they were nice, and said that they are available 24/7. But after we changed rooms, the first girl told us they can only change rooms in the morning and it depends on availability. Plus each morning the staff was out of the office for 5-10 minute (apparently there is only one staff member at the front desk) and they are always in the office due to being pulled by some additional tasks out of the office. There is no way the one staff can single handed fix the lack of proper management!We stayed here because we were only using this place for 7-8 hrs to sleep and get ready while visiting family for 2 days. It was loud as people arrived at 11 pm to 1 am. The air conditioner did not work in the second rm, so we were hot all night. It seemed that the quality control on room cleaning and stocking, and checks on maintenance items was absent. This cost room cost  $270 for 2 nights. This is the worst hotel that I have stayed in in years! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>We checked into rm 115 and the room was reasonably clean looking superficially, but then one of the night stand lights did not turn on, and in checking to make sure it was plugged in the dirt and dust (at least 5 -15 years worth) was on the carpet under the bed and behind night stand and along the side of the wall. Then it seemed so dirty I checked the sheets and there was black lint and some long black hairs in them. I picked them out and went to sleep because I was exhausted. In the morning the bath/shower drain would not drain. I asked to change rooms the next day. Staff were friendly and accommodating. My sister and I went into rm 154. The room initially seemed cleaner, but on closer inspection, it also was not clean, there were no plastic cups or shampoo, and the blow dryer did not work and the air conditioner did not cool down the room. Also the bathroom facet was about to come off the sink. We told the office staff both days and they were nice, and said that they are available 24/7. But after we changed rooms, the first girl told us they can only change rooms in the morning and it depends on availability. Plus each morning the staff was out of the office for 5-10 minute (apparently there is only one staff member at the front desk)...We checked into rm 115 and the room was reasonably clean looking superficially, but then one of the night stand lights did not turn on, and in checking to make sure it was plugged in the dirt and dust (at least 5 -15 years worth) was on the carpet under the bed and behind night stand and along the side of the wall. Then it seemed so dirty I checked the sheets and there was black lint and some long black hairs in them. I picked them out and went to sleep because I was exhausted. In the morning the bath/shower drain would not drain. I asked to change rooms the next day. Staff were friendly and accommodating. My sister and I went into rm 154. The room initially seemed cleaner, but on closer inspection, it also was not clean, there were no plastic cups or shampoo, and the blow dryer did not work and the air conditioner did not cool down the room. Also the bathroom facet was about to come off the sink. We told the office staff both days and they were nice, and said that they are available 24/7. But after we changed rooms, the first girl told us they can only change rooms in the morning and it depends on availability. Plus each morning the staff was out of the office for 5-10 minute (apparently there is only one staff member at the front desk) and they are always in the office due to being pulled by some additional tasks out of the office. There is no way the one staff can single handed fix the lack of proper management!We stayed here because we were only using this place for 7-8 hrs to sleep and get ready while visiting family for 2 days. It was loud as people arrived at 11 pm to 1 am. The air conditioner did not work in the second rm, so we were hot all night. It seemed that the quality control on room cleaning and stocking, and checks on maintenance items was absent. This cost room cost  $270 for 2 nights. This is the worst hotel that I have stayed in in years! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r569321211-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>569321211</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Terrible!</t>
+  </si>
+  <si>
+    <t>No services, dirty and locked in by Hotels.com. Big mistake coming here. Extremely small room with no service. Think three towels for five days, for four people and no restock. Not a great area either.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>No services, dirty and locked in by Hotels.com. Big mistake coming here. Extremely small room with no service. Think three towels for five days, for four people and no restock. Not a great area either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r567725286-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>567725286</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>BAD ALERT!  Are all Extended Stay Americas this bad?</t>
+  </si>
+  <si>
+    <t>My wife booked this stay, so I don't know what others before me have said, but this place was terrible. It's really large and almost entirely occupied, so the money must be flowing in to the owner. I wonder what they do with it, because they clearly don't spend it on staff, maintenance or refurbishment. Specifics: door handle did not work properly, air conditioner didn't work (although they replaced it the next day), carpet was dirty to the point we would put on our shoes to use the bathroom, the cement on the walkway was stained and dirty. Ashtrays on the walkways everywhere, including outside non-smoking rooms- so you are in your room and the air conditioner sucks in the smoke and stinks up your room. My room was run down generally. The person who checked me in was nice and tried to deal with the problems, but she didn't have an alternative room to grant me due to 99% occupancy. I feel sorry for all the employees who have to stay there while working in Irvine. I think their employers put them here because it's the lowest price place. Yuck.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>My wife booked this stay, so I don't know what others before me have said, but this place was terrible. It's really large and almost entirely occupied, so the money must be flowing in to the owner. I wonder what they do with it, because they clearly don't spend it on staff, maintenance or refurbishment. Specifics: door handle did not work properly, air conditioner didn't work (although they replaced it the next day), carpet was dirty to the point we would put on our shoes to use the bathroom, the cement on the walkway was stained and dirty. Ashtrays on the walkways everywhere, including outside non-smoking rooms- so you are in your room and the air conditioner sucks in the smoke and stinks up your room. My room was run down generally. The person who checked me in was nice and tried to deal with the problems, but she didn't have an alternative room to grant me due to 99% occupancy. I feel sorry for all the employees who have to stay there while working in Irvine. I think their employers put them here because it's the lowest price place. Yuck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r544685324-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>544685324</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Hotwire false advertisement</t>
+  </si>
+  <si>
+    <t>My husband used hotwire to get us a room for my 43rd birthday. Online #hotwire gave this hotel a 3 stars and the pictures that #hotwire used for advertisement was far from the truth. After we paid what #hotwire gave us was a 1 star motel... NOt by the beach as we requested and no king size bed like we asked for...What hotwire posted online is different locations/different name on the hotel and its not by the beach... I have taken a screen shot on what #hotwire used for their advertisement of a beautiful pool and when we got there the pool had algae growing and the hot tub was full of dirt...#hotwire is putting out false advertisement and they will continue to do this due to #hotwire has no refund policy, so you are stuck with what ever they give you...Very very bad experience... Dont use hotwire...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded December 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2017</t>
+  </si>
+  <si>
+    <t>My husband used hotwire to get us a room for my 43rd birthday. Online #hotwire gave this hotel a 3 stars and the pictures that #hotwire used for advertisement was far from the truth. After we paid what #hotwire gave us was a 1 star motel... NOt by the beach as we requested and no king size bed like we asked for...What hotwire posted online is different locations/different name on the hotel and its not by the beach... I have taken a screen shot on what #hotwire used for their advertisement of a beautiful pool and when we got there the pool had algae growing and the hot tub was full of dirt...#hotwire is putting out false advertisement and they will continue to do this due to #hotwire has no refund policy, so you are stuck with what ever they give you...Very very bad experience... Dont use hotwire...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r536859113-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>536859113</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Disgusting hotel</t>
+  </si>
+  <si>
+    <t>This place is so disgusting to be in the Irvine area. Stay away!! The odor &amp; carpet was disgusting. The outside grounds were unclean. The toilet leaked toilet water!! Save yourself the worry &amp; frustration with this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2017</t>
+  </si>
+  <si>
+    <t>This place is so disgusting to be in the Irvine area. Stay away!! The odor &amp; carpet was disgusting. The outside grounds were unclean. The toilet leaked toilet water!! Save yourself the worry &amp; frustration with this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r536766841-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>536766841</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times over the past few months.  This is a fairly descent hotel for a great price.  Front staff was exceptionally friendly.  Check-in was super fast and easy.  There is plenty of free parking.  It's not fancy or anything, but it has all the essentials and was clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times over the past few months.  This is a fairly descent hotel for a great price.  Front staff was exceptionally friendly.  Check-in was super fast and easy.  There is plenty of free parking.  It's not fancy or anything, but it has all the essentials and was clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r532460526-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>532460526</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>A simple clean suite.  Do remember to ask for the kitchen utilities at the front desk when you check in though.   A mall is a few feet walk from the back of the hotel..juice bar, Starbucks etc. A great location when doing business in Irvine.  Basically a reasonable price for a simple clean hotel that is quiet at night.  Customer service was really outstanding. The girls were friendly, efficient &amp; sweet.  And the Manager Gil went out of his way to be helpful..loaned me a cord to recharge my phone &amp; made arrangements to extend my room at short notice.  Professional, polite &amp; a gentleman at all times.  I will stay there again &amp; recommend to othersMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>A simple clean suite.  Do remember to ask for the kitchen utilities at the front desk when you check in though.   A mall is a few feet walk from the back of the hotel..juice bar, Starbucks etc. A great location when doing business in Irvine.  Basically a reasonable price for a simple clean hotel that is quiet at night.  Customer service was really outstanding. The girls were friendly, efficient &amp; sweet.  And the Manager Gil went out of his way to be helpful..loaned me a cord to recharge my phone &amp; made arrangements to extend my room at short notice.  Professional, polite &amp; a gentleman at all times.  I will stay there again &amp; recommend to othersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r523592613-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>523592613</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Nice Customer Service</t>
+  </si>
+  <si>
+    <t>I am rating this as 4 stars. The room is pretty decent for long term business needs. I have had a couple of issues which were addressed right away. The staff are friendly and prompt when dealing with these issues. the only thing I wish was different, is there is no pool at this complex. If there was I would rate this 5 stars. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>I am rating this as 4 stars. The room is pretty decent for long term business needs. I have had a couple of issues which were addressed right away. The staff are friendly and prompt when dealing with these issues. the only thing I wish was different, is there is no pool at this complex. If there was I would rate this 5 stars. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r513165226-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>513165226</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Good price</t>
+  </si>
+  <si>
+    <t>Rooms a little old but  comfortable. Plenty of parking in the hotel parking lot close to the rooms .  Call market and coffee shop very close and we can walking distance  Hotel staff very nice and did all they could to help me MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Rooms a little old but  comfortable. Plenty of parking in the hotel parking lot close to the rooms .  Call market and coffee shop very close and we can walking distance  Hotel staff very nice and did all they could to help me More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r532509509-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>532509509</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Do not extend your stay here</t>
+  </si>
+  <si>
+    <t>This place is designed for business travelers for an extended stay who are not looking for any frills, a hot-plate, microwave and mini-fridge in a tiny room with no place to put their stuff must be heaven to them. No pool, nothing decent to eat in the morning (just coffee, packaged muffins and granola bars that the first people up in the morning must all eat and staff do not refill), no supplies in the kitchen at arrival so you have to beg the front desk for even a coffee maker, but don't try to do that after 10:30 PM because no one is there. This is not a vacation destination. Fellow who checked us in did his best, but he said he was the laundryman at 1:00 AM. Didn't we know we were supposed to come earlier? No. Doesn't the chain know how to provide customer service? I am not familiar with this chain so maybe this is normal for them but won't be going back.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is designed for business travelers for an extended stay who are not looking for any frills, a hot-plate, microwave and mini-fridge in a tiny room with no place to put their stuff must be heaven to them. No pool, nothing decent to eat in the morning (just coffee, packaged muffins and granola bars that the first people up in the morning must all eat and staff do not refill), no supplies in the kitchen at arrival so you have to beg the front desk for even a coffee maker, but don't try to do that after 10:30 PM because no one is there. This is not a vacation destination. Fellow who checked us in did his best, but he said he was the laundryman at 1:00 AM. Didn't we know we were supposed to come earlier? No. Doesn't the chain know how to provide customer service? I am not familiar with this chain so maybe this is normal for them but won't be going back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r509205571-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>509205571</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Irvine Extended Stay</t>
+  </si>
+  <si>
+    <t>Room was run down, not cleaned properly and bugs present. The website made the facility look a lot better than it really was. It is quite outdated and desperately in need of at least minor renovations. The cooking equipment was cheap not very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Room was run down, not cleaned properly and bugs present. The website made the facility look a lot better than it really was. It is quite outdated and desperately in need of at least minor renovations. The cooking equipment was cheap not very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r508441841-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>508441841</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Won't go back there because of Samantha. She ruined my time there. The accommodations were great but her customer service was the poorest I've encountered in a very long time. She needs to go back to training in how to treat people and when you're at work whatever issues you may have at home don't bring them to work or don't work in customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Won't go back there because of Samantha. She ruined my time there. The accommodations were great but her customer service was the poorest I've encountered in a very long time. She needs to go back to training in how to treat people and when you're at work whatever issues you may have at home don't bring them to work or don't work in customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r507746413-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>507746413</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Room was awful - dirty carpet, mildew and the of smell of sewage in the bathroom. Spend the extra money and stay at the Marriott down the road. Don't bother wasting your money here. Not worth the bargain you think you're getting MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Room was awful - dirty carpet, mildew and the of smell of sewage in the bathroom. Spend the extra money and stay at the Marriott down the road. Don't bother wasting your money here. Not worth the bargain you think you're getting More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r499707038-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>499707038</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Bad experience/ dirty room</t>
+  </si>
+  <si>
+    <t>Booked online for our stay and arrived early, spoke with the front desk to let us know that the earliest our room would be available would be 1pm. They let us know they would call us when our room is ready. We did not receive a call. Showed back up at the location at the front desk let us know there were two rooms clean (none that were on the bottom floor as requested) and the cleaning crew was gone for the day at 5 pm. We settled for a second floor room and went to check out the room and it was disgusting. There was food packages and goldfish scattered in the pantry, the shower was dirty, the bed skirt had unknown substances on it, the counters were sticky from not being wiped down, and the flooring was coming up in the kitchen area. We went back to the front desk and Bridgette let us know that there were no other rooms clean for us to check in and the staff could not clean the room again because they were gone for the day. We canceled our stay and had to contact the online service that we used to book the room online to let them know we canceled it so that they would not charge us $500 cancelation fee. They had to call the hotel to confirm the room was not suitable and Bridgette let them know the...Booked online for our stay and arrived early, spoke with the front desk to let us know that the earliest our room would be available would be 1pm. They let us know they would call us when our room is ready. We did not receive a call. Showed back up at the location at the front desk let us know there were two rooms clean (none that were on the bottom floor as requested) and the cleaning crew was gone for the day at 5 pm. We settled for a second floor room and went to check out the room and it was disgusting. There was food packages and goldfish scattered in the pantry, the shower was dirty, the bed skirt had unknown substances on it, the counters were sticky from not being wiped down, and the flooring was coming up in the kitchen area. We went back to the front desk and Bridgette let us know that there were no other rooms clean for us to check in and the staff could not clean the room again because they were gone for the day. We canceled our stay and had to contact the online service that we used to book the room online to let them know we canceled it so that they would not charge us $500 cancelation fee. They had to call the hotel to confirm the room was not suitable and Bridgette let them know the room was clean and not to still charge us the cancelation fee because the room was clean. We had to then walk Bridgette through the room to show that it was not cleaned. Needless to say the customer service was horrible and we spent hours getting this settled so that we weren't charged a fee for cancelation for a room that we would have stayed in if someone could have cleaned it and trying to find a hotel for our stay last minute. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Booked online for our stay and arrived early, spoke with the front desk to let us know that the earliest our room would be available would be 1pm. They let us know they would call us when our room is ready. We did not receive a call. Showed back up at the location at the front desk let us know there were two rooms clean (none that were on the bottom floor as requested) and the cleaning crew was gone for the day at 5 pm. We settled for a second floor room and went to check out the room and it was disgusting. There was food packages and goldfish scattered in the pantry, the shower was dirty, the bed skirt had unknown substances on it, the counters were sticky from not being wiped down, and the flooring was coming up in the kitchen area. We went back to the front desk and Bridgette let us know that there were no other rooms clean for us to check in and the staff could not clean the room again because they were gone for the day. We canceled our stay and had to contact the online service that we used to book the room online to let them know we canceled it so that they would not charge us $500 cancelation fee. They had to call the hotel to confirm the room was not suitable and Bridgette let them know the...Booked online for our stay and arrived early, spoke with the front desk to let us know that the earliest our room would be available would be 1pm. They let us know they would call us when our room is ready. We did not receive a call. Showed back up at the location at the front desk let us know there were two rooms clean (none that were on the bottom floor as requested) and the cleaning crew was gone for the day at 5 pm. We settled for a second floor room and went to check out the room and it was disgusting. There was food packages and goldfish scattered in the pantry, the shower was dirty, the bed skirt had unknown substances on it, the counters were sticky from not being wiped down, and the flooring was coming up in the kitchen area. We went back to the front desk and Bridgette let us know that there were no other rooms clean for us to check in and the staff could not clean the room again because they were gone for the day. We canceled our stay and had to contact the online service that we used to book the room online to let them know we canceled it so that they would not charge us $500 cancelation fee. They had to call the hotel to confirm the room was not suitable and Bridgette let them know the room was clean and not to still charge us the cancelation fee because the room was clean. We had to then walk Bridgette through the room to show that it was not cleaned. Needless to say the customer service was horrible and we spent hours getting this settled so that we weren't charged a fee for cancelation for a room that we would have stayed in if someone could have cleaned it and trying to find a hotel for our stay last minute. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r499548634-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>499548634</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Typical Extended Stay</t>
+  </si>
+  <si>
+    <t>Price is good in comparison to most other hotels in the area.  Right next door to eateries, convenience store and a Starbucks.  Rooms are a little smaller than most Extended Stay Hotels I have been in, and there can be a lot of noise and commotion from folks partying at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Price is good in comparison to most other hotels in the area.  Right next door to eateries, convenience store and a Starbucks.  Rooms are a little smaller than most Extended Stay Hotels I have been in, and there can be a lot of noise and commotion from folks partying at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r499306886-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>499306886</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>EXTENDED STAY</t>
+  </si>
+  <si>
+    <t>Stay was Awesome. Like to stay if I visit Irvine. Service in Hotel is Good. Bets thing is that it is near Irvine Spectrum. Ambiance near the room is also great. I would recommend it to my friends too.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Stay was Awesome. Like to stay if I visit Irvine. Service in Hotel is Good. Bets thing is that it is near Irvine Spectrum. Ambiance near the room is also great. I would recommend it to my friends too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r491358364-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>491358364</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Close to Freeways, shopping, restaurants</t>
+  </si>
+  <si>
+    <t>I only stayed here 2 nights.  The room was large and clean. It had a kitchenette, large refrigerator, microwave and flat screen television.  I don't know if they offer breakfast or not. I was not told about breakfast when I checked in, so I assume that they don't. You can walk to Brueggers bagels which is in a little shopping center next door. There is also a convenience store and a coffee shop.  The only thing that seemed odd to me, was they charged extra for room service. I didn't use the service, but since I can't select NA, I marked it as poor.  There are 2 options for wifi. The free option is better than nothing but don't expect high speed internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>I only stayed here 2 nights.  The room was large and clean. It had a kitchenette, large refrigerator, microwave and flat screen television.  I don't know if they offer breakfast or not. I was not told about breakfast when I checked in, so I assume that they don't. You can walk to Brueggers bagels which is in a little shopping center next door. There is also a convenience store and a coffee shop.  The only thing that seemed odd to me, was they charged extra for room service. I didn't use the service, but since I can't select NA, I marked it as poor.  There are 2 options for wifi. The free option is better than nothing but don't expect high speed internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r487158923-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>487158923</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Together, contented</t>
+  </si>
+  <si>
+    <t>My 2 cats and I spent 3 nights in peace and comfort together while house was being fumigated.  Room appeared recently updated/remodeled. Closet roomy enough for cat beds, cages, my stuff. Kitchen had sink, microwave, cook-top, and new fridge, many cupboards.  Bed comfy, A/C  fine. Openable window a plus.  Bathroom big, all in good order.  Counter-table in kitchen allowed eating dinner while watching TV.  Parking showed lots of occupants, but hotel was peaceful.  Staff was helpful from reservation call to late checkout. They found the perfect pan to cook my dinner.  I saved a fortune in cat boarding fees and food.  It was a successful,  pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>My 2 cats and I spent 3 nights in peace and comfort together while house was being fumigated.  Room appeared recently updated/remodeled. Closet roomy enough for cat beds, cages, my stuff. Kitchen had sink, microwave, cook-top, and new fridge, many cupboards.  Bed comfy, A/C  fine. Openable window a plus.  Bathroom big, all in good order.  Counter-table in kitchen allowed eating dinner while watching TV.  Parking showed lots of occupants, but hotel was peaceful.  Staff was helpful from reservation call to late checkout. They found the perfect pan to cook my dinner.  I saved a fortune in cat boarding fees and food.  It was a successful,  pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r480384412-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>480384412</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Clean place, great people</t>
+  </si>
+  <si>
+    <t>The rooms and property were super clean. The front desk staff were friendly and helpful. When I needed extra towels they were happy to comply. Great place to stay and would recommend it to everyone. The price was a great deal too!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>The rooms and property were super clean. The front desk staff were friendly and helpful. When I needed extra towels they were happy to comply. Great place to stay and would recommend it to everyone. The price was a great deal too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r475981672-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>475981672</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Comfortable room but minus in breakfast variety</t>
+  </si>
+  <si>
+    <t>The room itself is comfortable, the size is quite spacious, cleanliness is great, only one feedback that there was no light in the luggage rack area, overwhelmed me whilst doing packing and unpacking. The minus part is only the breakfast, not many choice and seems doesnt want to provide one.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>The room itself is comfortable, the size is quite spacious, cleanliness is great, only one feedback that there was no light in the luggage rack area, overwhelmed me whilst doing packing and unpacking. The minus part is only the breakfast, not many choice and seems doesnt want to provide one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r469512313-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>469512313</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, convenient place to stay</t>
+  </si>
+  <si>
+    <t>Our room was plenty large enough for the two of us.  The kitchen area was sufficient for severals days' stay, but we had to ask for cooking utensils, toaster, pans, etc.  The area is nice, pretty, and appeared safe.   Starbucks and a couple of fast food places are adjacent to the property.  There is a Walmart a few blocks away.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Our room was plenty large enough for the two of us.  The kitchen area was sufficient for severals days' stay, but we had to ask for cooking utensils, toaster, pans, etc.  The area is nice, pretty, and appeared safe.   Starbucks and a couple of fast food places are adjacent to the property.  There is a Walmart a few blocks away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r468575307-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>468575307</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>cleanliness is not their strong suite!</t>
+  </si>
+  <si>
+    <t>This is my third visit to this hotel. I am a frequent visitor to this area. This is a great location. good stuff nearby. Rates are good for the area. Get what you pay for it seems. Each time we have been here the room has not been properly cleaned. This time, a used baby pacifier on the floor, empty water bottle in the closet. bathtub with sand and dirt. None of these life threatening just annoying. BTW, the receptionist at night is awesome, friendly, and very helpful!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>This is my third visit to this hotel. I am a frequent visitor to this area. This is a great location. good stuff nearby. Rates are good for the area. Get what you pay for it seems. Each time we have been here the room has not been properly cleaned. This time, a used baby pacifier on the floor, empty water bottle in the closet. bathtub with sand and dirt. None of these life threatening just annoying. BTW, the receptionist at night is awesome, friendly, and very helpful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r453208966-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>453208966</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>A Room</t>
+  </si>
+  <si>
+    <t>In the Irvine area for work training.  This place offers small rooms with limited kitchen space. Very simple and spartan. This is not the Ritz so don't expect too much. Coffee and muffins in the office during breakfast.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>In the Irvine area for work training.  This place offers small rooms with limited kitchen space. Very simple and spartan. This is not the Ritz so don't expect too much. Coffee and muffins in the office during breakfast.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r444703985-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>444703985</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>The staff is nioce enough, however, the conditiooons of the rooms are basically old and in need of renovations...had many issues on each stay there and stayed there on 3 separate occasions. Will not be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded December 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2016</t>
+  </si>
+  <si>
+    <t>The staff is nioce enough, however, the conditiooons of the rooms are basically old and in need of renovations...had many issues on each stay there and stayed there on 3 separate occasions. Will not be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r442868840-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>442868840</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>room dated</t>
+  </si>
+  <si>
+    <t>nice area and location.  the room was very dated, carpet old and stained.  The bed comforter and feel was not good.  Outside doors and had the feeling of a very cheap hotel.  I would not stay here again however for the location and price I do see why someone might, just not they would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>nice area and location.  the room was very dated, carpet old and stained.  The bed comforter and feel was not good.  Outside doors and had the feeling of a very cheap hotel.  I would not stay here again however for the location and price I do see why someone might, just not they would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r420296464-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>420296464</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>clean, comfortable and great location</t>
+  </si>
+  <si>
+    <t>we read a lot of negative comments about this hotel but stayed anyway for the close proximity to the train station. I am glad we did ! Check in was fast and easy and picking kitchen supplies is a great way to go. Within 5 minutes all the items were delivered to our room. Our room was clean and spacious, so is is the bathroom and the kitchen was perfect with a full fridge/freezer. The airconditioning is efficient and very quiet.Parking is convenient and ample. We stayed for 2 nights and had no issues. The breakfast is as described "Grab and Go" and worked just fine. There is a great bagel place around the corner! Close to Spectrum also ( $6 Uber)MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>we read a lot of negative comments about this hotel but stayed anyway for the close proximity to the train station. I am glad we did ! Check in was fast and easy and picking kitchen supplies is a great way to go. Within 5 minutes all the items were delivered to our room. Our room was clean and spacious, so is is the bathroom and the kitchen was perfect with a full fridge/freezer. The airconditioning is efficient and very quiet.Parking is convenient and ample. We stayed for 2 nights and had no issues. The breakfast is as described "Grab and Go" and worked just fine. There is a great bagel place around the corner! Close to Spectrum also ( $6 Uber)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r417195668-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>417195668</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Poor management</t>
+  </si>
+  <si>
+    <t>Extended Stay America at 30 Technology Dr in Irvine, CA is IMO, a lost opportunity. The location is OK, there's some construction up the street that has this being a very noisy place, but that's temporary. However, maintenance and cleaning is poor. We had to look at three or four rooms to find one with fewer dings on appliances and cabinets. Even with the room we settled on, we cleaned the bathroom tile and found lots of dust under the couch and gum stuck to the wall.
+For business, Internet is critical. My big issue was the Internet provider they decided to use, InnFlex. Apparently not all Extended Stay America locations use InnFlex, but the '30 Technology Dr' location did during our stay in the summer of 2016. Most "get" the problem that with their free Internet, one must pay to get Internet rates most hotels provide for free.
+But, a deeper issue for me, that may be less obvious, is InnFlex is a proxy that allows them to monitor your Internet use. I attached a screen capture of my web browser's warning. InnFlex calls that a "feature" where they monitor your traffic to "protect" you from viruses. Since at sign-up, they demand your name, I wonder if they are selling business travelers' Internet habits. Only a question since I don't know. Instead of continuing the sign-up process with InnFlex, I bought a hot-spot from my cell phone provider to...Extended Stay America at 30 Technology Dr in Irvine, CA is IMO, a lost opportunity. The location is OK, there's some construction up the street that has this being a very noisy place, but that's temporary. However, maintenance and cleaning is poor. We had to look at three or four rooms to find one with fewer dings on appliances and cabinets. Even with the room we settled on, we cleaned the bathroom tile and found lots of dust under the couch and gum stuck to the wall.For business, Internet is critical. My big issue was the Internet provider they decided to use, InnFlex. Apparently not all Extended Stay America locations use InnFlex, but the '30 Technology Dr' location did during our stay in the summer of 2016. Most "get" the problem that with their free Internet, one must pay to get Internet rates most hotels provide for free.But, a deeper issue for me, that may be less obvious, is InnFlex is a proxy that allows them to monitor your Internet use. I attached a screen capture of my web browser's warning. InnFlex calls that a "feature" where they monitor your traffic to "protect" you from viruses. Since at sign-up, they demand your name, I wonder if they are selling business travelers' Internet habits. Only a question since I don't know. Instead of continuing the sign-up process with InnFlex, I bought a hot-spot from my cell phone provider to use until I could move out of Extended Stay America.As soon as we could, we moved to the nearby Candlewood Suites in Lake Forest, CA. It was clean and their free Internet was without issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Extended Stay America at 30 Technology Dr in Irvine, CA is IMO, a lost opportunity. The location is OK, there's some construction up the street that has this being a very noisy place, but that's temporary. However, maintenance and cleaning is poor. We had to look at three or four rooms to find one with fewer dings on appliances and cabinets. Even with the room we settled on, we cleaned the bathroom tile and found lots of dust under the couch and gum stuck to the wall.
+For business, Internet is critical. My big issue was the Internet provider they decided to use, InnFlex. Apparently not all Extended Stay America locations use InnFlex, but the '30 Technology Dr' location did during our stay in the summer of 2016. Most "get" the problem that with their free Internet, one must pay to get Internet rates most hotels provide for free.
+But, a deeper issue for me, that may be less obvious, is InnFlex is a proxy that allows them to monitor your Internet use. I attached a screen capture of my web browser's warning. InnFlex calls that a "feature" where they monitor your traffic to "protect" you from viruses. Since at sign-up, they demand your name, I wonder if they are selling business travelers' Internet habits. Only a question since I don't know. Instead of continuing the sign-up process with InnFlex, I bought a hot-spot from my cell phone provider to...Extended Stay America at 30 Technology Dr in Irvine, CA is IMO, a lost opportunity. The location is OK, there's some construction up the street that has this being a very noisy place, but that's temporary. However, maintenance and cleaning is poor. We had to look at three or four rooms to find one with fewer dings on appliances and cabinets. Even with the room we settled on, we cleaned the bathroom tile and found lots of dust under the couch and gum stuck to the wall.For business, Internet is critical. My big issue was the Internet provider they decided to use, InnFlex. Apparently not all Extended Stay America locations use InnFlex, but the '30 Technology Dr' location did during our stay in the summer of 2016. Most "get" the problem that with their free Internet, one must pay to get Internet rates most hotels provide for free.But, a deeper issue for me, that may be less obvious, is InnFlex is a proxy that allows them to monitor your Internet use. I attached a screen capture of my web browser's warning. InnFlex calls that a "feature" where they monitor your traffic to "protect" you from viruses. Since at sign-up, they demand your name, I wonder if they are selling business travelers' Internet habits. Only a question since I don't know. Instead of continuing the sign-up process with InnFlex, I bought a hot-spot from my cell phone provider to use until I could move out of Extended Stay America.As soon as we could, we moved to the nearby Candlewood Suites in Lake Forest, CA. It was clean and their free Internet was without issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r416988885-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>416988885</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Hotel fine, internet unfriendly</t>
+  </si>
+  <si>
+    <t>The place is fine, rooms were good.  What was irritating is arriving and no place allocated  to park at office to check in.  Then the internet wifi is overlycomplex.  Connected but nothing.  Eventually a web page may appear asking for a code and your name address room email,  what else.  Ridiculous with a bunch of crap to fill in but what they are doing is getting ready for the upsell so  they can offer and charge you extra for better internet.  Based on this alone, Ill pick another chain next time. I want internet that works smoothly and readily, not a sales oportunity for the company that mines my info.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded September 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2016</t>
+  </si>
+  <si>
+    <t>The place is fine, rooms were good.  What was irritating is arriving and no place allocated  to park at office to check in.  Then the internet wifi is overlycomplex.  Connected but nothing.  Eventually a web page may appear asking for a code and your name address room email,  what else.  Ridiculous with a bunch of crap to fill in but what they are doing is getting ready for the upsell so  they can offer and charge you extra for better internet.  Based on this alone, Ill pick another chain next time. I want internet that works smoothly and readily, not a sales oportunity for the company that mines my info.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r391885763-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>391885763</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>Checked in for Concert at Irvine Meadows.bathroom was filthy, moldy, fixtures didnt work, phone looked like hadn't been cleaned in ages. the location is great to the Irvine Meadows Find another place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Checked in for Concert at Irvine Meadows.bathroom was filthy, moldy, fixtures didnt work, phone looked like hadn't been cleaned in ages. the location is great to the Irvine Meadows Find another place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r390574609-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>390574609</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>They helped me to find the lowest price and the room was nice and clean. Staff was good and polite. It comes with a full kitchenette and you ask for the utensils, like plates cups silverware and toaster ECT. Good service. Standard comfortable beds, coach, pillows and mini dining. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded July 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2016</t>
+  </si>
+  <si>
+    <t>They helped me to find the lowest price and the room was nice and clean. Staff was good and polite. It comes with a full kitchenette and you ask for the utensils, like plates cups silverware and toaster ECT. Good service. Standard comfortable beds, coach, pillows and mini dining. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r389199804-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>389199804</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Good place to sleep</t>
+  </si>
+  <si>
+    <t>Stayed here over weekend. Basic Extended hotel type room with    -full size frig (basically a small kitchen. Decent and clean.  A good place to sleep. Poorly insulated, wifi is free but only 512K... So slooooooowww.Really basic continental breakfast. Better than nothing.Don't expect too much and you'll be fine, otherwise look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here over weekend. Basic Extended hotel type room with    -full size frig (basically a small kitchen. Decent and clean.  A good place to sleep. Poorly insulated, wifi is free but only 512K... So slooooooowww.Really basic continental breakfast. Better than nothing.Don't expect too much and you'll be fine, otherwise look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r369723326-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>369723326</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Needed renovations 15 years ago</t>
+  </si>
+  <si>
+    <t>Staff are nice and vaguely clean, but otherwise terrible. One would go crazy staying there for an extended stay. Rooms look like 70s motel chic. Breakfast is a joke. Checkin area tiny. Thankfully there are stairs..elevator iffy.. not close to recommended. All looks ok from the outside but dont let that fool you...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Staff are nice and vaguely clean, but otherwise terrible. One would go crazy staying there for an extended stay. Rooms look like 70s motel chic. Breakfast is a joke. Checkin area tiny. Thankfully there are stairs..elevator iffy.. not close to recommended. All looks ok from the outside but dont let that fool you...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r368768535-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>368768535</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>The staff makes all the difference!!!!!!!</t>
+  </si>
+  <si>
+    <t>Bad choices in a partner have required my children and I to stay in far too many hotels recently. Though the room is a little small for the price and there is no garbage disposal :(.. the staff makes it totally worth the money! We have been here long enough to have dealings with a whole handful of font desk employees. All of them ahve been smiling and friendly. They have treated my children nicely and been willing to help in any way! They haven't once treated us as a bother, even working as a team to help us out quickly!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded April 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2016</t>
+  </si>
+  <si>
+    <t>Bad choices in a partner have required my children and I to stay in far too many hotels recently. Though the room is a little small for the price and there is no garbage disposal :(.. the staff makes it totally worth the money! We have been here long enough to have dealings with a whole handful of font desk employees. All of them ahve been smiling and friendly. They have treated my children nicely and been willing to help in any way! They haven't once treated us as a bother, even working as a team to help us out quickly!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r361271230-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>361271230</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Easter Holiday</t>
+  </si>
+  <si>
+    <t>Its a nice Hotel, located in a slightly industrial ( quite ) location. The Staff was great, always friendly. The fridge and stove made it nice for some simple meals. The grab and go breakfast was good. It would be nice to have coffee 24hrs. But hey!!. We have stayed at hotels in Lake Forest and this was much better because of the location and extreme quite. There is a Costco and Walmart with-in walking distance. And the fancy Irvine Spectrum is close. Hwy 5 and 405 are right there. The WiFi was much better than many hotels, I have stayed at.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r335575835-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>335575835</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel for an extended stay</t>
+  </si>
+  <si>
+    <t>We have stayed at this particular hotel and have really enjoyed our accommodations . The room we have is more like a studio with a small kitchen. The staff have been very helpful and professional. There is also a nice laundry facility.  I would definitely recommend this for anyone wanting a hotel with a home like feel.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r334831166-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>334831166</t>
+  </si>
+  <si>
+    <t>12/24/2015</t>
+  </si>
+  <si>
+    <t>Don't clean up dog poop!!!</t>
+  </si>
+  <si>
+    <t>I was happy to find this hotel was pet friendly but once we stayed I found that a bad thing because they don't require the guests with pets to clean up after their pet.  The outside area of the hotel is very dirty everywhere.  I've been staying here a month and have been cleaning up the dog poop from my own dog as well as from all the other dogs staying here so that my dog and I wouldn't be walking in old poop.  The room has been ok but I wasn't real pleased with the weekly cleaning they have been doing, I had to clean the bathroom sink and toilet once right after housekeeping had been here.  They also don't keep the laundry room clean either.  The staff here doesn't seem to have any pride in their business.  I was told Irvine was a classy area of CA but this location seems to get guests that fit with their staffs lack of care for their facility.  I've stayed in a lot of hotel/motels around the country and the grounds of this hotel is probably the worst I've experienced.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I was happy to find this hotel was pet friendly but once we stayed I found that a bad thing because they don't require the guests with pets to clean up after their pet.  The outside area of the hotel is very dirty everywhere.  I've been staying here a month and have been cleaning up the dog poop from my own dog as well as from all the other dogs staying here so that my dog and I wouldn't be walking in old poop.  The room has been ok but I wasn't real pleased with the weekly cleaning they have been doing, I had to clean the bathroom sink and toilet once right after housekeeping had been here.  They also don't keep the laundry room clean either.  The staff here doesn't seem to have any pride in their business.  I was told Irvine was a classy area of CA but this location seems to get guests that fit with their staffs lack of care for their facility.  I've stayed in a lot of hotel/motels around the country and the grounds of this hotel is probably the worst I've experienced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r334344448-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>334344448</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>Irvine visit</t>
+  </si>
+  <si>
+    <t>Nice place to stay, very good staff. accessible location, near to main city hub.Neat and clean place...friendly staff in this hotel, they are always ready to help and nice behavior. Decent prices for a night..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r322216125-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>322216125</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Good value (you get what you pay for); smoking rooms available</t>
+  </si>
+  <si>
+    <t>I disagree with recent negative reviews about uncleanliness - our room was spic and span clean.  This is not a luxury hotel, but facilities are adequate.  To be honest, I am a smoker and the main reason I chose this place is that they still offer smoking rooms. I expected a kind of 'dump', but was pleasantly surprised by the overall quality and value.  Staff is very friendly and helpful.  Great location if you need to be in this area, with easy access to all the major freeways let alone the great Spectrum Center with shopping and fine dining.  There's a great Bruegger's bagel place, 7/11, Starbucks, etc. a few feet away -- but you can also get fresh coffee and a light snack for breakfast right in the lobby of the hotel beginning 6:30am.  Overall, it served our needs very well but would not feel comfortable just 'hanging out' in the room for a R&amp;R.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I disagree with recent negative reviews about uncleanliness - our room was spic and span clean.  This is not a luxury hotel, but facilities are adequate.  To be honest, I am a smoker and the main reason I chose this place is that they still offer smoking rooms. I expected a kind of 'dump', but was pleasantly surprised by the overall quality and value.  Staff is very friendly and helpful.  Great location if you need to be in this area, with easy access to all the major freeways let alone the great Spectrum Center with shopping and fine dining.  There's a great Bruegger's bagel place, 7/11, Starbucks, etc. a few feet away -- but you can also get fresh coffee and a light snack for breakfast right in the lobby of the hotel beginning 6:30am.  Overall, it served our needs very well but would not feel comfortable just 'hanging out' in the room for a R&amp;R.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r321980639-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>321980639</t>
+  </si>
+  <si>
+    <t>I would stay again</t>
+  </si>
+  <si>
+    <t>The rooms were clean and kept up.  Nothing fancy but it is an extended stay.  Location is great for 2 major freeways plus plenty of shopping and food within a 5 minute drive.  The walls are a little thin, you can hear others opening and closing doors but otherwise we really enjoyed the stay.  We would certainly stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r320927207-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>320927207</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Poor quality accomodation</t>
+  </si>
+  <si>
+    <t>Its cheap - fine. but quality is poor. Room felt moldy and to be honest, I spent as much time away as I could as Spectrum Centre close by instead of the room. Laundry expensive, no gym, available food for morning snack is ok. Get what you pay for.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r312828890-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>312828890</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>close to spectrum n cheap</t>
+  </si>
+  <si>
+    <t>SO we stayed at this place while playing a tennis event in Irvine, was not bad, clean, convenient to the spectrum and was affordable.  Room was up to par, no complaints, the only things that I can say they needed were an Ice machine, and a gym.   Overall, was decent value - breakfast was OK, not the best, but it did the job.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r305843449-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>305843449</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Pet friendly hotel</t>
+  </si>
+  <si>
+    <t>a pleasure for us and our pet! We needed a pet friendly hotel that wouldn't gouge us. This place was clean, comfortable, and welcomed our pet poodle! Will definitely stay there again and recommend it highly for those with pets or without!!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r294988305-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>294988305</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Gross...</t>
+  </si>
+  <si>
+    <t>They had to check to see if our room was ready... wait, I booked it 3 months ago... you have to check? Well, the carpet was wet .... smelled of mildew... shower busted... sorry, we are full, no more rooms... Take your money and UPGRADE to a nicer place... if cheap is your goal...this place is for you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r268956695-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>268956695</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Excellent Stay for 10 days at Extended Stay of America</t>
+  </si>
+  <si>
+    <t>I was really feeling happy with the way the staffs behave and the service they provide.It made me comfortable with all the cooking stuffs and I felt that I'm not away from my home. Walmart is just at a 5 mins walking distance, and you have couple of small restaurants/Coffee shops at the back where you can hang out.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r263339560-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>263339560</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Don't Do It!</t>
+  </si>
+  <si>
+    <t>The hotel rooms are small inside and outdated. My room had a hard bed and found spiders inside bathroom. I was planning on staying for three days but went  to Marriott after one day way better experience</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r259502265-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>259502265</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Byan and ISIS are the best in the west!</t>
+  </si>
+  <si>
+    <t>This is a great property. Nice and clean and Bryan and ISIS took care of my every high maintenance need.This property is very conveniently located close to the freeway but no freeway noise. Very little rif raf and like I said, Bryan and ISIS will take great care of you.Give it a try. You wont be disapinted.Damon Block949-633-0190</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r256095924-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>256095924</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Hostile staff and incompetent management</t>
+  </si>
+  <si>
+    <t>Stay away from this hotel. There are better choices around.Our mattress was unbelievably squeaky. My spouse and I had two sleepless nights.Wendy the manager refused to replace the mattress, and she would not even come to the front desk to talk to us. The staff in general was rude and unhelpful.This specific hotel did not live up to the Extended Stay America's promise to provide a "clean and comfortable room". Another meaningless marketing slogan!We checked out and went to another place that provided better service, and were the staff was actually professional and helpful.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r253102000-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>253102000</t>
+  </si>
+  <si>
+    <t>02/07/2015</t>
+  </si>
+  <si>
+    <t>I love Extended Stay. It's truly a 
+home away from home.</t>
+  </si>
+  <si>
+    <t>I love staying at Extended Stay. It's close to my work and gives me everything I need to be comfortable.  I'm a "tub" person and enjoy a hot bath along with a shower as well. I like fixing my own meals and having a decent size refrigerator for my food. Costco and Walmart, as well as the Irvine Spectrum, are nearby for shopping. My room was quiet which I love too. I highly recommend this as a great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r251548314-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>251548314</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Solid hotel</t>
+  </si>
+  <si>
+    <t>Location was great. The hotel staff was very friendly and were helpful. Room was clean for the most part. It could have used a dusting. The hotel is very close to the Irvine Spectrum, which as plenty of shops and restaurants. The neighborhood feels safe and it is close the 5 and 405 freeways.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r235184238-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>235184238</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>I wish I could give negative stars</t>
+  </si>
+  <si>
+    <t>We booked two queen beds and they said they sold out and gave us one king with a pull out sofa. Then when we entered the room it smelled like a smoke shop, a huge spider was in the shower and hairs were on the toilet. The manager didn't apologize for giving us the wrong room. He screamed at us and said he could only give us a refund which we couldn't take cause it was already 10:00 pm. The room sucked and the staff people are really unfriendly. I do not recommend this hotel. Please don't make the mistake I did.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r229811146-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>229811146</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I stayed here after a concert at Verizon theater. I loved this place. The staff was friendly and accommodating. The room was very clean and spacious. I loved that it had a kitchen. It wasn't noisy at all. I will definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here after a concert at Verizon theater. I loved this place. The staff was friendly and accommodating. The room was very clean and spacious. I loved that it had a kitchen. It wasn't noisy at all. I will definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r229237923-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>229237923</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Convenient and quiet location</t>
+  </si>
+  <si>
+    <t>The hotel is located a few blocks away from the freeway so you don't hear the noise which we like. Plenty of shops nearby including Walmart, Costco and a big mall.The room was nice and very clean. It has a little kitchenette but no dishes, you have to order a "package" but it wasn't clear on the brochure if there was an extra fee. If you like to have your room cleaned everyday and you're there only for a regular short stay, then this is not the right place because they only clean rooms depending on the number of nights you stay. The only waste basket is underneath the sink, there were no cups in the bathroom, and no box of tissues either. Breakfast is barely coffee, wrapped muffins, oatmeal.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>The hotel is located a few blocks away from the freeway so you don't hear the noise which we like. Plenty of shops nearby including Walmart, Costco and a big mall.The room was nice and very clean. It has a little kitchenette but no dishes, you have to order a "package" but it wasn't clear on the brochure if there was an extra fee. If you like to have your room cleaned everyday and you're there only for a regular short stay, then this is not the right place because they only clean rooms depending on the number of nights you stay. The only waste basket is underneath the sink, there were no cups in the bathroom, and no box of tissues either. Breakfast is barely coffee, wrapped muffins, oatmeal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r226340600-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>226340600</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here. Hotel is a dump.</t>
+  </si>
+  <si>
+    <t>It took over 30 minutes to check in because they didn't know what they were doing.  Spiders in the hallways.  Hair in the refrigerator and microwave.  There was hair on the towels; it looked they picked them up off the floor and just hung them on the rack.  There was mold in the bathroom. The curtain rods were falling off the wall. They rationed out new towels, toilet paper, soap, etc..... like it was gold.  Cheapest place I've ever stayed at.  The grab and go breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2014</t>
+  </si>
+  <si>
+    <t>It took over 30 minutes to check in because they didn't know what they were doing.  Spiders in the hallways.  Hair in the refrigerator and microwave.  There was hair on the towels; it looked they picked them up off the floor and just hung them on the rack.  There was mold in the bathroom. The curtain rods were falling off the wall. They rationed out new towels, toilet paper, soap, etc..... like it was gold.  Cheapest place I've ever stayed at.  The grab and go breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r224740324-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>224740324</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Nice location, bad rooms</t>
+  </si>
+  <si>
+    <t>I had to stay at Exended Stay in Irvine while looking for a permanent place to stay and because of the uncertainty of my 'homelessness' they were the only place that had a room for a week straight.  The location is good, near many restaurants and stores, but the room was horrible.  It was a 'smoking' room and even though I smoke I thought it was obnoxious.  The AC in my room was just being fixed as I opened the door and the Maint guy was nice enough to warn me the carpet would be wet from the problem for a while so if I wanted another room we could do that.  We tried...sigh..the room next door actually.  It was markedly WORSE smelling than mine so I kept mine, wet carpet and all, for a week.  Would certainly make any effort to not stay here again unless everything else was booked and I had no car to sleep in...then...maybe...MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>I had to stay at Exended Stay in Irvine while looking for a permanent place to stay and because of the uncertainty of my 'homelessness' they were the only place that had a room for a week straight.  The location is good, near many restaurants and stores, but the room was horrible.  It was a 'smoking' room and even though I smoke I thought it was obnoxious.  The AC in my room was just being fixed as I opened the door and the Maint guy was nice enough to warn me the carpet would be wet from the problem for a while so if I wanted another room we could do that.  We tried...sigh..the room next door actually.  It was markedly WORSE smelling than mine so I kept mine, wet carpet and all, for a week.  Would certainly make any effort to not stay here again unless everything else was booked and I had no car to sleep in...then...maybe...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r224639709-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>224639709</t>
+  </si>
+  <si>
+    <t>Very satisfied</t>
+  </si>
+  <si>
+    <t>I was in Irvine for a week of training and Extended Stay was on the same street.  The room was a little smaller than what I had experienced years ago (closer to LA) but it was roomy enough, and the bed was (maybe) a little firmer than some would prefer; but I was very comfortable.  My online reservations were quick and painless, and my check-in was equally so.  I actually felt more comfortable than I do at home with the peace and quiet and all the amenities I needed.  The bathroom was spacious, as was the shower.  The refrigerator and sink were very handy but I didn't use the stove.  The free WiFi was limited but I had little to no problem using it (I could have paid for more bandwidth, though).  I was easily able to get work done as well as settle in to a relaxed comfort.  It’s near Walmart, Starbucks, and the Spectrum, and with easy access to Alton and Interstate 5.  And it's a short distance from John Wayne Airport.  I will definitely stay here again.My experience at Extended Stay America has always been good.  This one in Orange County, although a little different, was really no exception.  I always feel welcome and accommodated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>I was in Irvine for a week of training and Extended Stay was on the same street.  The room was a little smaller than what I had experienced years ago (closer to LA) but it was roomy enough, and the bed was (maybe) a little firmer than some would prefer; but I was very comfortable.  My online reservations were quick and painless, and my check-in was equally so.  I actually felt more comfortable than I do at home with the peace and quiet and all the amenities I needed.  The bathroom was spacious, as was the shower.  The refrigerator and sink were very handy but I didn't use the stove.  The free WiFi was limited but I had little to no problem using it (I could have paid for more bandwidth, though).  I was easily able to get work done as well as settle in to a relaxed comfort.  It’s near Walmart, Starbucks, and the Spectrum, and with easy access to Alton and Interstate 5.  And it's a short distance from John Wayne Airport.  I will definitely stay here again.My experience at Extended Stay America has always been good.  This one in Orange County, although a little different, was really no exception.  I always feel welcome and accommodated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r218006763-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>218006763</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Nice room.</t>
+  </si>
+  <si>
+    <t>Pet friendly, extended stay, these are generally nice attributes. Breakfast is nothing to call home about, but considering my living situation limbo, it's good enough. It has a fridge, it's close to the Irvine Spectrum, Wal-Mart, and all that (Target too, if you're not a fan of Wal-Mart). The room is good, the wifi sucks if you're cheap like me, there's a decent sized fridge, stove, microwave (no oven), desk and plenty of surface space. The bathroom is unexpectedly huge and the closet is walk-in sized. Even the sofa bed is quite comfy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2014</t>
+  </si>
+  <si>
+    <t>Pet friendly, extended stay, these are generally nice attributes. Breakfast is nothing to call home about, but considering my living situation limbo, it's good enough. It has a fridge, it's close to the Irvine Spectrum, Wal-Mart, and all that (Target too, if you're not a fan of Wal-Mart). The room is good, the wifi sucks if you're cheap like me, there's a decent sized fridge, stove, microwave (no oven), desk and plenty of surface space. The bathroom is unexpectedly huge and the closet is walk-in sized. Even the sofa bed is quite comfy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r214123743-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>214123743</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>It was OK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here during July 4th weekend &amp; it was just OK.  Nothing special about it.  Check in was fast.  The room had a kitchen with fridge, microwave, &amp; stove which we did not use at all.  The room was pretty small for a "studio suite".  The bed was small &amp; uncomfortable.  My back was hurting.  The location is nice, around stores, restaurants, &amp; shops.  Our room was right next to Starbucks &amp; 711, literally a few steps away.  I wouldn't stay here again unless I had no choice! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r210158575-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>210158575</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Not a good experience...</t>
+  </si>
+  <si>
+    <t>Booked this hotel due to it's convenient location to The Spectrum and good price.  Unfortunately, the old adage "you get what you pay for" is certainly true at this place.  The room I stayed in wasn't per se "dirty", but it had a musty smell to it.  Also, the front desk people COULD NOT CARE LESS about customer service.  No eye contact and did so much as even look up when checking in our out. There were some seedy characters on the North side of the hotel, I think they might be "extended stay" resident.  A couple of cool broken down trucks parked in the front, too. The convenient location of a Starbucks was the highlight of my stayMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Booked this hotel due to it's convenient location to The Spectrum and good price.  Unfortunately, the old adage "you get what you pay for" is certainly true at this place.  The room I stayed in wasn't per se "dirty", but it had a musty smell to it.  Also, the front desk people COULD NOT CARE LESS about customer service.  No eye contact and did so much as even look up when checking in our out. There were some seedy characters on the North side of the hotel, I think they might be "extended stay" resident.  A couple of cool broken down trucks parked in the front, too. The convenient location of a Starbucks was the highlight of my stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r204618340-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>204618340</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Dirty rooms</t>
+  </si>
+  <si>
+    <t>I stayed two nights as I went for a near by job interview.  the rooms are really outdated.  the kitchen was dirty.  never will stay again or recommend it to anyone else.  the only good thing about the experience was the young lady named Isis at the front desk, she was great.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r203880932-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>203880932</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>They stole my laptop</t>
+  </si>
+  <si>
+    <t>I stayed there Friday night and left my bag in the room.. Next day I checked out but forgot to take my bag... Called back to get my bag..they gave me the bag but zipper was open and my lab top was not there</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r203666258-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>203666258</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>“Great place to stay!”</t>
+  </si>
+  <si>
+    <t>I stayed for couple of weeks and  rooms were substantial, clean, quiet and well appointed.  All the staff - [especially Ditas :) ] were very helpful and my late check-out request was no problem. The hotel is very centrally located- Near spectrum, wallmart &amp; train station in Irvine,</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r193937994-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>193937994</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>Great bang for the buck!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am between housing and wanted a comfortable place to stay that was priced well, close by and had a kitchen. Extended Stay Irvine fit the bill perfectly and far exceeded my expectations.  Based on the price, I didn't arrive with high expectations.  As I travel and need housing.....Extended Stay hotels is now at the top of my list.  </t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r189283464-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>189283464</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>This hotel made my unexpected long term project stay (11mo.) feel like "home away from home" for me. The staff was helpful, responsive to my needs and great to talk to. Yes. It's a business hotel and that's what I expected going in, nothing less. The internet was a little sluggish at times, but it only took a quick phone call to boost up the signal. The location was exceptional as it was close to I-5 and I-405, so it made it easy to get to work and back. I was there through their renovation and was happy they did it. Bed was perfect for me and glad they got rid of those old crunchy towels which were upgraded with some new soft ones -loved them. Had no trouble checking out. Overall great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded January 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2014</t>
+  </si>
+  <si>
+    <t>This hotel made my unexpected long term project stay (11mo.) feel like "home away from home" for me. The staff was helpful, responsive to my needs and great to talk to. Yes. It's a business hotel and that's what I expected going in, nothing less. The internet was a little sluggish at times, but it only took a quick phone call to boost up the signal. The location was exceptional as it was close to I-5 and I-405, so it made it easy to get to work and back. I was there through their renovation and was happy they did it. Bed was perfect for me and glad they got rid of those old crunchy towels which were upgraded with some new soft ones -loved them. Had no trouble checking out. Overall great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r188578238-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>188578238</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Family Comfort and Very Accomodating</t>
+  </si>
+  <si>
+    <t>The beds were perfect, plenty of pillows :) Solid connection of the free WiFi- nice large bathroom.Very clean room and the kitchenette was just right for us. * 1 SUGGESTION-- BIGGER SOFTER TOWELS WOULD HAVE GIVEN YOU A 5 STAR RATING :) -- make that happen and you WILL BE #1 5 STAR with us.This location is  a very private &amp; comfortable transitional residence for us, The Staff and Cleaning crew were especially pleasant and very accommodating. I highly recommend this location over ANY OTHER hotel in this price range. EXTENDED STAY AMERICA -  you cant go wrong - they have it ALL.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded January 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2014</t>
+  </si>
+  <si>
+    <t>The beds were perfect, plenty of pillows :) Solid connection of the free WiFi- nice large bathroom.Very clean room and the kitchenette was just right for us. * 1 SUGGESTION-- BIGGER SOFTER TOWELS WOULD HAVE GIVEN YOU A 5 STAR RATING :) -- make that happen and you WILL BE #1 5 STAR with us.This location is  a very private &amp; comfortable transitional residence for us, The Staff and Cleaning crew were especially pleasant and very accommodating. I highly recommend this location over ANY OTHER hotel in this price range. EXTENDED STAY AMERICA -  you cant go wrong - they have it ALL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r182367011-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>182367011</t>
+  </si>
+  <si>
+    <t>10/25/2013</t>
+  </si>
+  <si>
+    <t>Got the job done</t>
+  </si>
+  <si>
+    <t>Outside of the staff and location, there wasn't really anything exceptional about my stay.  The room, while a little shabby and in need of a refresh, was clean and in good working order.  The bed was comfy and the TV worked just fine (would've been nice to have NFL Network to watch the Thursday games).  Overall, the room and services weren't spectacular, but they met all of my needs and expectations.The location is fantastic.  Work, food and coffee and public transportation is all within walking distance.  It's right next to the two main highways in Orange County.  The price is very reasonable, considering how unreasonable prices in Irvine can be.The staff is also fantastic.  They are very attentive and helpful to guest needs.  They are cheerful in addressing your questions/requests, and anticipate future needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded November 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2013</t>
+  </si>
+  <si>
+    <t>Outside of the staff and location, there wasn't really anything exceptional about my stay.  The room, while a little shabby and in need of a refresh, was clean and in good working order.  The bed was comfy and the TV worked just fine (would've been nice to have NFL Network to watch the Thursday games).  Overall, the room and services weren't spectacular, but they met all of my needs and expectations.The location is fantastic.  Work, food and coffee and public transportation is all within walking distance.  It's right next to the two main highways in Orange County.  The price is very reasonable, considering how unreasonable prices in Irvine can be.The staff is also fantastic.  They are very attentive and helpful to guest needs.  They are cheerful in addressing your questions/requests, and anticipate future needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r182071298-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>182071298</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>This place is adequate.  It met my needs for my business trip.  It was a bit shabby with linens that were very cheap.  There are no nice extras.  The kitchen and supplies were adequate with 2 forks, 2 paring knives, and 2 tablespoons.  There is no pool, lobby, or other area outside of your room to hang out.  The little strip mall next door has a very nice outside area and the Starbucks is a plus.  There was plenty of parking and the location is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded October 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2013</t>
+  </si>
+  <si>
+    <t>This place is adequate.  It met my needs for my business trip.  It was a bit shabby with linens that were very cheap.  There are no nice extras.  The kitchen and supplies were adequate with 2 forks, 2 paring knives, and 2 tablespoons.  There is no pool, lobby, or other area outside of your room to hang out.  The little strip mall next door has a very nice outside area and the Starbucks is a plus.  There was plenty of parking and the location is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r181890279-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>181890279</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Very kind people</t>
+  </si>
+  <si>
+    <t>In general the hotel is good, clean and everyting works as is supposed. Internet, TV, AA.I think what I liked from this hotel is the people, all the people is very kind and try to help me in all they can with tips about the zone, shops and all I need. It was like if I have friends in the town.MoreShow less</t>
+  </si>
+  <si>
+    <t>In general the hotel is good, clean and everyting works as is supposed. Internet, TV, AA.I think what I liked from this hotel is the people, all the people is very kind and try to help me in all they can with tips about the zone, shops and all I need. It was like if I have friends in the town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r174758021-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>174758021</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>I will not stay in this hotel again</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel twice and both times was a horrible experience! The first time was on July 16th. where I checked into the room and the air conditioner was off. So I turned it on thinking it would cool the room but finally realized it did not work and was blowing hot air. So they switched me to another room which of course means having to re-pack everything to move to the next room which was fine. 
+My second visit was August 13th. and that was an even worst experience. Then I check into the room and got everything settled before going to dinner. When I returned I was ready to settle in and watch T.V. and go to sleep. I went to turn the T.V. on and it did not work. I went to the front desk carrying the remote and got new batteries before going back up and it still did not work. When I checked in I also ask for a ground floor room due to having a broken arm and not wanting to carry bags upstairs. I was told they had no ground floor rooms. When I went back to the front desk to complain that the T.V. was still not working the front desk person who was very nice said she could put my in another room and gave me two keys to check the room before I moved again. Both rooms...I have stayed at this hotel twice and both times was a horrible experience! The first time was on July 16th. where I checked into the room and the air conditioner was off. So I turned it on thinking it would cool the room but finally realized it did not work and was blowing hot air. So they switched me to another room which of course means having to re-pack everything to move to the next room which was fine. My second visit was August 13th. and that was an even worst experience. Then I check into the room and got everything settled before going to dinner. When I returned I was ready to settle in and watch T.V. and go to sleep. I went to turn the T.V. on and it did not work. I went to the front desk carrying the remote and got new batteries before going back up and it still did not work. When I checked in I also ask for a ground floor room due to having a broken arm and not wanting to carry bags upstairs. I was told they had no ground floor rooms. When I went back to the front desk to complain that the T.V. was still not working the front desk person who was very nice said she could put my in another room and gave me two keys to check the room before I moved again. Both rooms were on the ground floor. I chose a room and again had to go pack everything back up, carry it back down the stairs and back to my car before finally settling into the room. I thought everything was fine until the next morning when I got up and went to make coffee and the coffee pot did not work. When I checked out I again complained about that issue and was informed they would have the G.M. contact me and something would be done about all the problems I had experienced with this property. I left my phone number but of course I never heard from the G.M.  I have lived in and out of hotels for many years and this without a doubt is the worst hotel I have ever experienced!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel twice and both times was a horrible experience! The first time was on July 16th. where I checked into the room and the air conditioner was off. So I turned it on thinking it would cool the room but finally realized it did not work and was blowing hot air. So they switched me to another room which of course means having to re-pack everything to move to the next room which was fine. 
+My second visit was August 13th. and that was an even worst experience. Then I check into the room and got everything settled before going to dinner. When I returned I was ready to settle in and watch T.V. and go to sleep. I went to turn the T.V. on and it did not work. I went to the front desk carrying the remote and got new batteries before going back up and it still did not work. When I checked in I also ask for a ground floor room due to having a broken arm and not wanting to carry bags upstairs. I was told they had no ground floor rooms. When I went back to the front desk to complain that the T.V. was still not working the front desk person who was very nice said she could put my in another room and gave me two keys to check the room before I moved again. Both rooms...I have stayed at this hotel twice and both times was a horrible experience! The first time was on July 16th. where I checked into the room and the air conditioner was off. So I turned it on thinking it would cool the room but finally realized it did not work and was blowing hot air. So they switched me to another room which of course means having to re-pack everything to move to the next room which was fine. My second visit was August 13th. and that was an even worst experience. Then I check into the room and got everything settled before going to dinner. When I returned I was ready to settle in and watch T.V. and go to sleep. I went to turn the T.V. on and it did not work. I went to the front desk carrying the remote and got new batteries before going back up and it still did not work. When I checked in I also ask for a ground floor room due to having a broken arm and not wanting to carry bags upstairs. I was told they had no ground floor rooms. When I went back to the front desk to complain that the T.V. was still not working the front desk person who was very nice said she could put my in another room and gave me two keys to check the room before I moved again. Both rooms were on the ground floor. I chose a room and again had to go pack everything back up, carry it back down the stairs and back to my car before finally settling into the room. I thought everything was fine until the next morning when I got up and went to make coffee and the coffee pot did not work. When I checked out I again complained about that issue and was informed they would have the G.M. contact me and something would be done about all the problems I had experienced with this property. I left my phone number but of course I never heard from the G.M.  I have lived in and out of hotels for many years and this without a doubt is the worst hotel I have ever experienced!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r173663363-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>173663363</t>
+  </si>
+  <si>
+    <t>08/23/2013</t>
+  </si>
+  <si>
+    <t>Best Value in OC</t>
+  </si>
+  <si>
+    <t>Had to get my house fumigated and needed a place with kitchen, etc. Found This Extended Stay America in Irvine at a great rate. I was shocked and pleased with the property. The room was a good size, the bed was comfortable and there was a kitchen ready to use. Bathroom was roomy with a tub/shower. I was very pleased with my experience and I would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded August 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2013</t>
+  </si>
+  <si>
+    <t>Had to get my house fumigated and needed a place with kitchen, etc. Found This Extended Stay America in Irvine at a great rate. I was shocked and pleased with the property. The room was a good size, the bed was comfortable and there was a kitchen ready to use. Bathroom was roomy with a tub/shower. I was very pleased with my experience and I would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r170948502-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>170948502</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>I will not stay here again.</t>
+  </si>
+  <si>
+    <t>This hotel has been a disappointment since the very first day. The quoted price we were given was not honored, we have had to pay $500 more than expected, even after speaking to a manager about the price. The toilet in our original room was broken, causing us to have to move rooms with no compensation. The internet has worked a total of 3 times during our stay. My husband has had to find other locations to complete his at home work tasks, causing him to be away from his family longer than necessary. We have tried to be very courteous to the maid service and leave the room while they clean, this last week our room was not cleaned. The previous cleanings have not been great either. I feel I am still wiping everything down before I let my son down to play. When I called and asked about this I was told the room would be cleaned sometime the next day. I would like a general time so I can plan my sons naps accordingly.Overall, this has been a terrible experience and we will not be coming back. If there was another establishment that offered a kitchenette, we would have checked out earlier.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has been a disappointment since the very first day. The quoted price we were given was not honored, we have had to pay $500 more than expected, even after speaking to a manager about the price. The toilet in our original room was broken, causing us to have to move rooms with no compensation. The internet has worked a total of 3 times during our stay. My husband has had to find other locations to complete his at home work tasks, causing him to be away from his family longer than necessary. We have tried to be very courteous to the maid service and leave the room while they clean, this last week our room was not cleaned. The previous cleanings have not been great either. I feel I am still wiping everything down before I let my son down to play. When I called and asked about this I was told the room would be cleaned sometime the next day. I would like a general time so I can plan my sons naps accordingly.Overall, this has been a terrible experience and we will not be coming back. If there was another establishment that offered a kitchenette, we would have checked out earlier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r164556098-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>164556098</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean and Convenient</t>
+  </si>
+  <si>
+    <t>I made my reservation at the last minute online with no problem (I prefer making a reservation online instead of on the telephone as it just makes it easier for me).  It's a very simple process and you easily see what is available.  I was a little bit frazzled after an extremely long day on the road and the girl at the front desk took care of my check-in and answered all of my questions in a professional manner.  My room was clean, comfortable and quiet, and provided everything I needed.  The grab &amp; go breakfast is perfect for a cup of coffee or a bite to eat.  This location is close to a variety of restaurants and shopping.  Extended Stay America is always my first choice whenever I travel.  (No, I do not work for them... I just appreciate what they offer).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>I made my reservation at the last minute online with no problem (I prefer making a reservation online instead of on the telephone as it just makes it easier for me).  It's a very simple process and you easily see what is available.  I was a little bit frazzled after an extremely long day on the road and the girl at the front desk took care of my check-in and answered all of my questions in a professional manner.  My room was clean, comfortable and quiet, and provided everything I needed.  The grab &amp; go breakfast is perfect for a cup of coffee or a bite to eat.  This location is close to a variety of restaurants and shopping.  Extended Stay America is always my first choice whenever I travel.  (No, I do not work for them... I just appreciate what they offer).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r164113854-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>164113854</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Forced Room Change Terrible</t>
+  </si>
+  <si>
+    <t>Avoid this MOTEL and choose from many, many other options in the Irvine Spectrum area.We were forced to change rooms, with same-day notice, mid stay.  As we were in the middle of a relocation, this was particularly straining.  This motel is currently remodeling all rooms on site.  We moved to a newly remodeled room where the bathroom door fell off its hinge.  Remodeling will not change the fact this is a 2-story motel with outdoor parking in the middle of a white-collar office ghost town at the high-traffic intersection of Alton and Technology.BEWARE misleading advertisements: "Studio suite rooms" are 220 square feet.  "Fully equipped kitchens" have electric stoves, under powered microwaves, and no oven.  "Convenient workspace" is the kitchen counter.  Staff are poorly trained and misinformed.Service is abhorrent.  Housekeeping calls before 7am in hopes you are there and will avoid cleaning your room.  Laundry facility faces the main street.  Trash is everywhere.  Grab and go breakfast includes cereal bars and individually wrapped muffins with burned coffee.  No one addresses barking dogs, loud banging, nearby smoking, or left dog waste.Please spare yourself the misery I experienced and book anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Avoid this MOTEL and choose from many, many other options in the Irvine Spectrum area.We were forced to change rooms, with same-day notice, mid stay.  As we were in the middle of a relocation, this was particularly straining.  This motel is currently remodeling all rooms on site.  We moved to a newly remodeled room where the bathroom door fell off its hinge.  Remodeling will not change the fact this is a 2-story motel with outdoor parking in the middle of a white-collar office ghost town at the high-traffic intersection of Alton and Technology.BEWARE misleading advertisements: "Studio suite rooms" are 220 square feet.  "Fully equipped kitchens" have electric stoves, under powered microwaves, and no oven.  "Convenient workspace" is the kitchen counter.  Staff are poorly trained and misinformed.Service is abhorrent.  Housekeeping calls before 7am in hopes you are there and will avoid cleaning your room.  Laundry facility faces the main street.  Trash is everywhere.  Grab and go breakfast includes cereal bars and individually wrapped muffins with burned coffee.  No one addresses barking dogs, loud banging, nearby smoking, or left dog waste.Please spare yourself the misery I experienced and book anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r160219279-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>160219279</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Passable - if in a pinch</t>
+  </si>
+  <si>
+    <t>Making a reservation on the phone with the property was, let's just say, one that took a bit of patience.  The female front desk agent seemed rattled easily and was quite curt with answering my questions about the location and extent of remodeling the property had undergone.Check-in was smoother as I checked-in during the shift after that female front desk agent.  The male front desk agent who performed the check-in was far more informative and courteous.  Even he concurred that the female front desk agent to whom I referenced was short on patience as she also worked as a kindergarten teacher (strange as I would think one who is a kindergarten teacher would need to have tons of patience).I was informed that my room was one of the renovated ones ... but the carpet had some tears and black marks and the kitchen countertop had quite a few burn marks as well.  And the kitchenware (pots/pans/dishes) that was in the cabinents were heavily stained.The room was quite cramped and the bed was pretty lumpy and not conducive for a good night's sleep.  On the plus side, the bathroom clearly had new fixtures and curtains and was clean.For the convenience factor, there was a Wal-mart nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Making a reservation on the phone with the property was, let's just say, one that took a bit of patience.  The female front desk agent seemed rattled easily and was quite curt with answering my questions about the location and extent of remodeling the property had undergone.Check-in was smoother as I checked-in during the shift after that female front desk agent.  The male front desk agent who performed the check-in was far more informative and courteous.  Even he concurred that the female front desk agent to whom I referenced was short on patience as she also worked as a kindergarten teacher (strange as I would think one who is a kindergarten teacher would need to have tons of patience).I was informed that my room was one of the renovated ones ... but the carpet had some tears and black marks and the kitchen countertop had quite a few burn marks as well.  And the kitchenware (pots/pans/dishes) that was in the cabinents were heavily stained.The room was quite cramped and the bed was pretty lumpy and not conducive for a good night's sleep.  On the plus side, the bathroom clearly had new fixtures and curtains and was clean.For the convenience factor, there was a Wal-mart nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r156033247-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>156033247</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Affordable, great location, great service!</t>
+  </si>
+  <si>
+    <t>I stayed here for a weekend and their rooms were outdated, but clean. The location was good and next to the spectrum mall and their front desk people were very nice and helpful! Will recommend and come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded March 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for a weekend and their rooms were outdated, but clean. The location was good and next to the spectrum mall and their front desk people were very nice and helpful! Will recommend and come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r151352435-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>151352435</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>nice place to stay</t>
+  </si>
+  <si>
+    <t>I like the convenience of having a kitchen here.  The location is awesome, easy access to the freeway.  The security and cleanliness are both pretty good.  I've stayed here numerous times and plan to come back in the future too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>I like the convenience of having a kitchen here.  The location is awesome, easy access to the freeway.  The security and cleanliness are both pretty good.  I've stayed here numerous times and plan to come back in the future too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r149006281-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>149006281</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Low quality hotel room, mediocre service. *Disappointed*</t>
+  </si>
+  <si>
+    <t>Low quality hotel room, mediocre service.The sofa bed mattress had huge, ugly stains all over. The carpet also VERY dirty, with  multiple stains.The sofa bed was incredibly uncomfortable, almost impossible to sleep on it. It was higher in the MIDDLE than at the ends, and it wobbled and moved all the time. The room was not cleaned properly before we occupied it. I found lots of food leftovers under the air conditioner/heater unit and under the bed.   The AC/heater unit was very old and NOISY. It woke us up multiple times every night, every time it switched itself on.After the towels were all used I called the front desk to ask them to change them. They didn't. I brought the dirty towels down myself, and they said they would send someone with clean ones. They didn't. My son had to chase down one of the cleaning ladies and ask her for clean towels. I also asked for an extra blanket, they said they would bring one, but we never got it.The only reason I picked this hotel was due to its location. However, it's very unlikely I will ever stay at this hotel again, or at any hotel from this chain for that matter.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded January 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2013</t>
+  </si>
+  <si>
+    <t>Low quality hotel room, mediocre service.The sofa bed mattress had huge, ugly stains all over. The carpet also VERY dirty, with  multiple stains.The sofa bed was incredibly uncomfortable, almost impossible to sleep on it. It was higher in the MIDDLE than at the ends, and it wobbled and moved all the time. The room was not cleaned properly before we occupied it. I found lots of food leftovers under the air conditioner/heater unit and under the bed.   The AC/heater unit was very old and NOISY. It woke us up multiple times every night, every time it switched itself on.After the towels were all used I called the front desk to ask them to change them. They didn't. I brought the dirty towels down myself, and they said they would send someone with clean ones. They didn't. My son had to chase down one of the cleaning ladies and ask her for clean towels. I also asked for an extra blanket, they said they would bring one, but we never got it.The only reason I picked this hotel was due to its location. However, it's very unlikely I will ever stay at this hotel again, or at any hotel from this chain for that matter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r138817350-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>138817350</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>WE FOUND BED BUGS, and floors were unbelievably dirty. There were more issues, but I don't think you need any additional reasons not to stay here, BUT this site requires a 200 word minimum for reviews. So here it goes - the towels are small and fiber barren, we had to purchase a plastic shower curtain since the one provided was a joke, the florescent lights made me want to gouge my eyes out, the TV is glued down, which makes it impossible to reposition if you need to. (Important if you want a work area for a computer, since there is no desk) The bed was crazy loud, the pull out sofa sleeper didn't even have bedding or a sheet on it. The sofa sleeper was the worst I have ever seen - it was oddly angled with your head propped much higher than your feet. Good luck sleeping like that. I actually went to the office to tell them ours was broken, and they said they just "work that way".Did I mention the floors were disgusting? Oh I did? How disgusting were they you ask? Gross enough for us to acquire our own shampooer to make it more livable.Worst hotel experience of my life - and I've stayed in some terrible places.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>WE FOUND BED BUGS, and floors were unbelievably dirty. There were more issues, but I don't think you need any additional reasons not to stay here, BUT this site requires a 200 word minimum for reviews. So here it goes - the towels are small and fiber barren, we had to purchase a plastic shower curtain since the one provided was a joke, the florescent lights made me want to gouge my eyes out, the TV is glued down, which makes it impossible to reposition if you need to. (Important if you want a work area for a computer, since there is no desk) The bed was crazy loud, the pull out sofa sleeper didn't even have bedding or a sheet on it. The sofa sleeper was the worst I have ever seen - it was oddly angled with your head propped much higher than your feet. Good luck sleeping like that. I actually went to the office to tell them ours was broken, and they said they just "work that way".Did I mention the floors were disgusting? Oh I did? How disgusting were they you ask? Gross enough for us to acquire our own shampooer to make it more livable.Worst hotel experience of my life - and I've stayed in some terrible places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r138000975-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>138000975</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Good deal, good location</t>
+  </si>
+  <si>
+    <t>It's good for the location and the price is unbeatable if you need a long term lodging. It provides good coffee and simple breakfast. The staff are friendly. It's safe and easy access to the freeway and shopping mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2012</t>
+  </si>
+  <si>
+    <t>It's good for the location and the price is unbeatable if you need a long term lodging. It provides good coffee and simple breakfast. The staff are friendly. It's safe and easy access to the freeway and shopping mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r136354965-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>136354965</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>One of the better ESA properties I have stayed at</t>
+  </si>
+  <si>
+    <t>It was still a Homestead Suites when I was there in May... Pergo flooring and flat screen TVs for under 100 bucks a night (that's how you know you're in the OC, lol)... rooms were overall awesome for the price pointLocation is very good, closest hotel to the Irvine train station, if you're into that sort of thing, some decent food options in the area too (like donuts at the train station chinese place)Bathroom has a bit of a sulphur smell but that was my only issue (although a corkscrew would be nice either in the rooms or at the front desk)Too bad it's an exterior corridor property which always gets on my nerves a littleMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2012</t>
+  </si>
+  <si>
+    <t>It was still a Homestead Suites when I was there in May... Pergo flooring and flat screen TVs for under 100 bucks a night (that's how you know you're in the OC, lol)... rooms were overall awesome for the price pointLocation is very good, closest hotel to the Irvine train station, if you're into that sort of thing, some decent food options in the area too (like donuts at the train station chinese place)Bathroom has a bit of a sulphur smell but that was my only issue (although a corkscrew would be nice either in the rooms or at the front desk)Too bad it's an exterior corridor property which always gets on my nerves a littleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r129956221-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>129956221</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>Great Job</t>
+  </si>
+  <si>
+    <t>We always have a great experience.  The team did a wonderful job.  Keep up the great work.MoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Orange County - Irvine Spectrum, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>We always have a great experience.  The team did a wonderful job.  Keep up the great work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r129129029-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>129129029</t>
+  </si>
+  <si>
+    <t>04/30/2012</t>
+  </si>
+  <si>
+    <t>ALM</t>
+  </si>
+  <si>
+    <t>If you're looking for a nice hotel with better than average accommodations, you want to visit Homestead Suites Hotel in Irvine, CA.  I truly appreciate their staff, living quarters and room rates.  I would definitely recommend Homestead Suites Hotel to my family, friends and colleagues without hesitation.  Well done!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>If you're looking for a nice hotel with better than average accommodations, you want to visit Homestead Suites Hotel in Irvine, CA.  I truly appreciate their staff, living quarters and room rates.  I would definitely recommend Homestead Suites Hotel to my family, friends and colleagues without hesitation.  Well done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r128623578-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>128623578</t>
+  </si>
+  <si>
+    <t>04/25/2012</t>
+  </si>
+  <si>
+    <t>Extremely satified with the room as well as the hospitality.</t>
+  </si>
+  <si>
+    <t>From the moment I walked in to check-in I new I would enjoy my stay.  There were several guets in front of me and the phone was ringing and the person at the front desk was handling everything professionally and very polite; I was impressed.  After I observing her, I knew the customer service at the hotel was going to be great.  The room was very comfortable and is was a nice and quiet area which was perfect because I needed some rest.  I was very satified with my stay and would definately stay here again when I am in need of a room.  MoreShow less</t>
+  </si>
+  <si>
+    <t>From the moment I walked in to check-in I new I would enjoy my stay.  There were several guets in front of me and the phone was ringing and the person at the front desk was handling everything professionally and very polite; I was impressed.  After I observing her, I knew the customer service at the hotel was going to be great.  The room was very comfortable and is was a nice and quiet area which was perfect because I needed some rest.  I was very satified with my stay and would definately stay here again when I am in need of a room.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r126563227-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>126563227</t>
+  </si>
+  <si>
+    <t>03/23/2012</t>
+  </si>
+  <si>
+    <t>pretty upset with my recent stay</t>
+  </si>
+  <si>
+    <t>Its my birthday today and I checked in for the weekend,I have stayed here before so knew its not the best hotel but decent for the price,Well this time they lied to me giving me a room that has no bathtub and when I said i have stayed here before and know most of the rooms had tubs the front desk girl lied to me and told me they switched all the rooms except for the king suites to showers instead of tubs wich I know isd bs because I have stayed here over 10 nights in the last 2 months in different rooms that all had tubs.anyway the room they gave me now is so gross I think I am going to switch hotels even though i cant cant a refund since i booked through priceline.The carpet is badly stained with the door has nasty stuff on it and the room smells like something died in it and the mattress is harder than a rock.If you stay here be sure not to stay in building A,I am uploading pictures of the ripped furniture and dirty floors too.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Its my birthday today and I checked in for the weekend,I have stayed here before so knew its not the best hotel but decent for the price,Well this time they lied to me giving me a room that has no bathtub and when I said i have stayed here before and know most of the rooms had tubs the front desk girl lied to me and told me they switched all the rooms except for the king suites to showers instead of tubs wich I know isd bs because I have stayed here over 10 nights in the last 2 months in different rooms that all had tubs.anyway the room they gave me now is so gross I think I am going to switch hotels even though i cant cant a refund since i booked through priceline.The carpet is badly stained with the door has nasty stuff on it and the room smells like something died in it and the mattress is harder than a rock.If you stay here be sure not to stay in building A,I am uploading pictures of the ripped furniture and dirty floors too.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2650,5734 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>195</v>
+      </c>
+      <c r="X19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>244</v>
+      </c>
+      <c r="X25" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>260</v>
+      </c>
+      <c r="O27" t="s">
+        <v>123</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>261</v>
+      </c>
+      <c r="X27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
+        <v>268</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>269</v>
+      </c>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>270</v>
+      </c>
+      <c r="X28" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>274</v>
+      </c>
+      <c r="J29" t="s">
+        <v>275</v>
+      </c>
+      <c r="K29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>278</v>
+      </c>
+      <c r="O29" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>279</v>
+      </c>
+      <c r="X29" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>287</v>
+      </c>
+      <c r="O30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>288</v>
+      </c>
+      <c r="X30" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>292</v>
+      </c>
+      <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s">
+        <v>295</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>296</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>297</v>
+      </c>
+      <c r="X31" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s">
+        <v>304</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>305</v>
+      </c>
+      <c r="X32" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" t="s">
+        <v>310</v>
+      </c>
+      <c r="K33" t="s">
+        <v>311</v>
+      </c>
+      <c r="L33" t="s">
+        <v>312</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>313</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>314</v>
+      </c>
+      <c r="X33" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>318</v>
+      </c>
+      <c r="J34" t="s">
+        <v>319</v>
+      </c>
+      <c r="K34" t="s">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s">
+        <v>321</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>211</v>
+      </c>
+      <c r="O34" t="s">
+        <v>123</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>322</v>
+      </c>
+      <c r="X34" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>326</v>
+      </c>
+      <c r="J35" t="s">
+        <v>327</v>
+      </c>
+      <c r="K35" t="s">
+        <v>328</v>
+      </c>
+      <c r="L35" t="s">
+        <v>329</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>330</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>331</v>
+      </c>
+      <c r="X35" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>335</v>
+      </c>
+      <c r="J36" t="s">
+        <v>336</v>
+      </c>
+      <c r="K36" t="s">
+        <v>337</v>
+      </c>
+      <c r="L36" t="s">
+        <v>338</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>330</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>339</v>
+      </c>
+      <c r="X36" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>343</v>
+      </c>
+      <c r="J37" t="s">
+        <v>344</v>
+      </c>
+      <c r="K37" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s">
+        <v>346</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>330</v>
+      </c>
+      <c r="O37" t="s">
+        <v>123</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>347</v>
+      </c>
+      <c r="X37" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>350</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>351</v>
+      </c>
+      <c r="J38" t="s">
+        <v>352</v>
+      </c>
+      <c r="K38" t="s">
+        <v>353</v>
+      </c>
+      <c r="L38" t="s">
+        <v>354</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>355</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>356</v>
+      </c>
+      <c r="X38" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>360</v>
+      </c>
+      <c r="J39" t="s">
+        <v>361</v>
+      </c>
+      <c r="K39" t="s">
+        <v>362</v>
+      </c>
+      <c r="L39" t="s">
+        <v>363</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>364</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>365</v>
+      </c>
+      <c r="X39" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>369</v>
+      </c>
+      <c r="J40" t="s">
+        <v>370</v>
+      </c>
+      <c r="K40" t="s">
+        <v>371</v>
+      </c>
+      <c r="L40" t="s">
+        <v>372</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>373</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>375</v>
+      </c>
+      <c r="J41" t="s">
+        <v>376</v>
+      </c>
+      <c r="K41" t="s">
+        <v>377</v>
+      </c>
+      <c r="L41" t="s">
+        <v>378</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>379</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="s">
+        <v>382</v>
+      </c>
+      <c r="K42" t="s">
+        <v>383</v>
+      </c>
+      <c r="L42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>385</v>
+      </c>
+      <c r="O42" t="s">
+        <v>78</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>387</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>388</v>
+      </c>
+      <c r="J43" t="s">
+        <v>389</v>
+      </c>
+      <c r="K43" t="s">
+        <v>390</v>
+      </c>
+      <c r="L43" t="s">
+        <v>391</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>385</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" t="s">
+        <v>394</v>
+      </c>
+      <c r="K44" t="s">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s">
+        <v>396</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>397</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>399</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" t="s">
+        <v>394</v>
+      </c>
+      <c r="K45" t="s">
+        <v>401</v>
+      </c>
+      <c r="L45" t="s">
+        <v>402</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>397</v>
+      </c>
+      <c r="O45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>404</v>
+      </c>
+      <c r="J46" t="s">
+        <v>405</v>
+      </c>
+      <c r="K46" t="s">
+        <v>406</v>
+      </c>
+      <c r="L46" t="s">
+        <v>407</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>408</v>
+      </c>
+      <c r="O46" t="s">
+        <v>78</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>410</v>
+      </c>
+      <c r="J47" t="s">
+        <v>411</v>
+      </c>
+      <c r="K47" t="s">
+        <v>412</v>
+      </c>
+      <c r="L47" t="s">
+        <v>413</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>414</v>
+      </c>
+      <c r="O47" t="s">
+        <v>123</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>415</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>416</v>
+      </c>
+      <c r="J48" t="s">
+        <v>417</v>
+      </c>
+      <c r="K48" t="s">
+        <v>418</v>
+      </c>
+      <c r="L48" t="s">
+        <v>419</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>420</v>
+      </c>
+      <c r="O48" t="s">
+        <v>123</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>421</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>422</v>
+      </c>
+      <c r="J49" t="s">
+        <v>423</v>
+      </c>
+      <c r="K49" t="s">
+        <v>424</v>
+      </c>
+      <c r="L49" t="s">
+        <v>425</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>408</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>426</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>427</v>
+      </c>
+      <c r="J50" t="s">
+        <v>428</v>
+      </c>
+      <c r="K50" t="s">
+        <v>429</v>
+      </c>
+      <c r="L50" t="s">
+        <v>430</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>431</v>
+      </c>
+      <c r="O50" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>432</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>433</v>
+      </c>
+      <c r="J51" t="s">
+        <v>434</v>
+      </c>
+      <c r="K51" t="s">
+        <v>435</v>
+      </c>
+      <c r="L51" t="s">
+        <v>436</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>431</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>438</v>
+      </c>
+      <c r="J52" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" t="s">
+        <v>440</v>
+      </c>
+      <c r="L52" t="s">
+        <v>441</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>442</v>
+      </c>
+      <c r="O52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>444</v>
+      </c>
+      <c r="J53" t="s">
+        <v>445</v>
+      </c>
+      <c r="K53" t="s">
+        <v>446</v>
+      </c>
+      <c r="L53" t="s">
+        <v>447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>454</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>455</v>
+      </c>
+      <c r="J55" t="s">
+        <v>456</v>
+      </c>
+      <c r="K55" t="s">
+        <v>457</v>
+      </c>
+      <c r="L55" t="s">
+        <v>458</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>459</v>
+      </c>
+      <c r="O55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>460</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>461</v>
+      </c>
+      <c r="J56" t="s">
+        <v>462</v>
+      </c>
+      <c r="K56" t="s">
+        <v>463</v>
+      </c>
+      <c r="L56" t="s">
+        <v>464</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>466</v>
+      </c>
+      <c r="J57" t="s">
+        <v>467</v>
+      </c>
+      <c r="K57" t="s">
+        <v>468</v>
+      </c>
+      <c r="L57" t="s">
+        <v>469</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>470</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>471</v>
+      </c>
+      <c r="X57" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>474</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>475</v>
+      </c>
+      <c r="J58" t="s">
+        <v>476</v>
+      </c>
+      <c r="K58" t="s">
+        <v>477</v>
+      </c>
+      <c r="L58" t="s">
+        <v>478</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>479</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>471</v>
+      </c>
+      <c r="X58" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>481</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J59" t="s">
+        <v>483</v>
+      </c>
+      <c r="K59" t="s">
+        <v>484</v>
+      </c>
+      <c r="L59" t="s">
+        <v>485</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>470</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>486</v>
+      </c>
+      <c r="X59" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>489</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>490</v>
+      </c>
+      <c r="J60" t="s">
+        <v>491</v>
+      </c>
+      <c r="K60" t="s">
+        <v>492</v>
+      </c>
+      <c r="L60" t="s">
+        <v>493</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>470</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>494</v>
+      </c>
+      <c r="X60" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>497</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>498</v>
+      </c>
+      <c r="J61" t="s">
+        <v>491</v>
+      </c>
+      <c r="K61" t="s">
+        <v>499</v>
+      </c>
+      <c r="L61" t="s">
+        <v>500</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>470</v>
+      </c>
+      <c r="O61" t="s">
+        <v>78</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>501</v>
+      </c>
+      <c r="X61" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>504</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>505</v>
+      </c>
+      <c r="J62" t="s">
+        <v>506</v>
+      </c>
+      <c r="K62" t="s">
+        <v>507</v>
+      </c>
+      <c r="L62" t="s">
+        <v>508</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>509</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>510</v>
+      </c>
+      <c r="X62" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>513</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>514</v>
+      </c>
+      <c r="J63" t="s">
+        <v>515</v>
+      </c>
+      <c r="K63" t="s">
+        <v>516</v>
+      </c>
+      <c r="L63" t="s">
+        <v>517</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>518</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>519</v>
+      </c>
+      <c r="J64" t="s">
+        <v>520</v>
+      </c>
+      <c r="K64" t="s">
+        <v>521</v>
+      </c>
+      <c r="L64" t="s">
+        <v>522</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>523</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>525</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>526</v>
+      </c>
+      <c r="J65" t="s">
+        <v>527</v>
+      </c>
+      <c r="K65" t="s">
+        <v>528</v>
+      </c>
+      <c r="L65" t="s">
+        <v>529</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>530</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>531</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>532</v>
+      </c>
+      <c r="J66" t="s">
+        <v>533</v>
+      </c>
+      <c r="K66" t="s">
+        <v>534</v>
+      </c>
+      <c r="L66" t="s">
+        <v>535</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>530</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67" t="s">
+        <v>538</v>
+      </c>
+      <c r="K67" t="s">
+        <v>539</v>
+      </c>
+      <c r="L67" t="s">
+        <v>540</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>541</v>
+      </c>
+      <c r="O67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>542</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>543</v>
+      </c>
+      <c r="J68" t="s">
+        <v>544</v>
+      </c>
+      <c r="K68" t="s">
+        <v>545</v>
+      </c>
+      <c r="L68" t="s">
+        <v>546</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>547</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>548</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>549</v>
+      </c>
+      <c r="J69" t="s">
+        <v>550</v>
+      </c>
+      <c r="K69" t="s">
+        <v>551</v>
+      </c>
+      <c r="L69" t="s">
+        <v>552</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>553</v>
+      </c>
+      <c r="O69" t="s">
+        <v>78</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>554</v>
+      </c>
+      <c r="X69" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>557</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>558</v>
+      </c>
+      <c r="J70" t="s">
+        <v>559</v>
+      </c>
+      <c r="K70" t="s">
+        <v>560</v>
+      </c>
+      <c r="L70" t="s">
+        <v>561</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>553</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>562</v>
+      </c>
+      <c r="X70" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>565</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>566</v>
+      </c>
+      <c r="J71" t="s">
+        <v>567</v>
+      </c>
+      <c r="K71" t="s">
+        <v>568</v>
+      </c>
+      <c r="L71" t="s">
+        <v>569</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>570</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>571</v>
+      </c>
+      <c r="X71" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>575</v>
+      </c>
+      <c r="J72" t="s">
+        <v>576</v>
+      </c>
+      <c r="K72" t="s">
+        <v>577</v>
+      </c>
+      <c r="L72" t="s">
+        <v>578</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>579</v>
+      </c>
+      <c r="O72" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>580</v>
+      </c>
+      <c r="X72" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>584</v>
+      </c>
+      <c r="J73" t="s">
+        <v>585</v>
+      </c>
+      <c r="K73" t="s">
+        <v>586</v>
+      </c>
+      <c r="L73" t="s">
+        <v>587</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>570</v>
+      </c>
+      <c r="O73" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>580</v>
+      </c>
+      <c r="X73" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>589</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>590</v>
+      </c>
+      <c r="J74" t="s">
+        <v>591</v>
+      </c>
+      <c r="K74" t="s">
+        <v>592</v>
+      </c>
+      <c r="L74" t="s">
+        <v>593</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>579</v>
+      </c>
+      <c r="O74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>595</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>596</v>
+      </c>
+      <c r="J75" t="s">
+        <v>597</v>
+      </c>
+      <c r="K75" t="s">
+        <v>598</v>
+      </c>
+      <c r="L75" t="s">
+        <v>599</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>579</v>
+      </c>
+      <c r="O75" t="s">
+        <v>123</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>600</v>
+      </c>
+      <c r="X75" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>603</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>604</v>
+      </c>
+      <c r="J76" t="s">
+        <v>605</v>
+      </c>
+      <c r="K76" t="s">
+        <v>606</v>
+      </c>
+      <c r="L76" t="s">
+        <v>607</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>609</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>610</v>
+      </c>
+      <c r="J77" t="s">
+        <v>611</v>
+      </c>
+      <c r="K77" t="s">
+        <v>612</v>
+      </c>
+      <c r="L77" t="s">
+        <v>613</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>614</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>615</v>
+      </c>
+      <c r="X77" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>618</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>619</v>
+      </c>
+      <c r="J78" t="s">
+        <v>620</v>
+      </c>
+      <c r="K78" t="s">
+        <v>621</v>
+      </c>
+      <c r="L78" t="s">
+        <v>622</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>614</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>624</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>625</v>
+      </c>
+      <c r="J79" t="s">
+        <v>626</v>
+      </c>
+      <c r="K79" t="s">
+        <v>627</v>
+      </c>
+      <c r="L79" t="s">
+        <v>628</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>629</v>
+      </c>
+      <c r="O79" t="s">
+        <v>78</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>631</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>632</v>
+      </c>
+      <c r="J80" t="s">
+        <v>633</v>
+      </c>
+      <c r="K80" t="s">
+        <v>634</v>
+      </c>
+      <c r="L80" t="s">
+        <v>635</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>636</v>
+      </c>
+      <c r="X80" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>639</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>640</v>
+      </c>
+      <c r="J81" t="s">
+        <v>641</v>
+      </c>
+      <c r="K81" t="s">
+        <v>642</v>
+      </c>
+      <c r="L81" t="s">
+        <v>643</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>629</v>
+      </c>
+      <c r="O81" t="s">
+        <v>78</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>644</v>
+      </c>
+      <c r="X81" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>647</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>648</v>
+      </c>
+      <c r="J82" t="s">
+        <v>649</v>
+      </c>
+      <c r="K82" t="s">
+        <v>650</v>
+      </c>
+      <c r="L82" t="s">
+        <v>651</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>629</v>
+      </c>
+      <c r="O82" t="s">
+        <v>78</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>652</v>
+      </c>
+      <c r="X82" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>655</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>656</v>
+      </c>
+      <c r="J83" t="s">
+        <v>657</v>
+      </c>
+      <c r="K83" t="s">
+        <v>658</v>
+      </c>
+      <c r="L83" t="s">
+        <v>659</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>660</v>
+      </c>
+      <c r="O83" t="s">
+        <v>62</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>661</v>
+      </c>
+      <c r="X83" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>664</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>665</v>
+      </c>
+      <c r="J84" t="s">
+        <v>666</v>
+      </c>
+      <c r="K84" t="s">
+        <v>667</v>
+      </c>
+      <c r="L84" t="s">
+        <v>668</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>660</v>
+      </c>
+      <c r="O84" t="s">
+        <v>62</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>669</v>
+      </c>
+      <c r="X84" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>672</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>673</v>
+      </c>
+      <c r="J85" t="s">
+        <v>674</v>
+      </c>
+      <c r="K85" t="s">
+        <v>675</v>
+      </c>
+      <c r="L85" t="s">
+        <v>676</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>677</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>678</v>
+      </c>
+      <c r="X85" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>681</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>682</v>
+      </c>
+      <c r="J86" t="s">
+        <v>683</v>
+      </c>
+      <c r="K86" t="s">
+        <v>684</v>
+      </c>
+      <c r="L86" t="s">
+        <v>685</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>677</v>
+      </c>
+      <c r="O86" t="s">
+        <v>78</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>686</v>
+      </c>
+      <c r="X86" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>689</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>690</v>
+      </c>
+      <c r="J87" t="s">
+        <v>691</v>
+      </c>
+      <c r="K87" t="s">
+        <v>692</v>
+      </c>
+      <c r="L87" t="s">
+        <v>693</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>694</v>
+      </c>
+      <c r="O87" t="s">
+        <v>78</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>686</v>
+      </c>
+      <c r="X87" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>696</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>697</v>
+      </c>
+      <c r="J88" t="s">
+        <v>698</v>
+      </c>
+      <c r="K88" t="s">
+        <v>699</v>
+      </c>
+      <c r="L88" t="s">
+        <v>700</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>686</v>
+      </c>
+      <c r="X88" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>35190</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>702</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>703</v>
+      </c>
+      <c r="J89" t="s">
+        <v>704</v>
+      </c>
+      <c r="K89" t="s">
+        <v>705</v>
+      </c>
+      <c r="L89" t="s">
+        <v>706</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>707</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_273.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_273.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="797">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>very comfortable stay Rosie and Joselyn where very friendly and a great help with all of my needs. Hotel is freeway close as well as there is a shopping center within walking distance if you are traveling without a car as well as a Starbucks right next doorMore</t>
   </si>
   <si>
+    <t>marielgalang84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r589763478-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Enjoyed our stay! Staff was personable and accommodating  The location is perfect for shopping since it's across the Irvine spectrum. Really loved the huge fridge and microwave since I need to store milk and sterilize baby bottles. It was so convenient to have all those ammentities. The hotel was also clean and spacious. Will definitely stay here next time we come to ca.More</t>
   </si>
   <si>
+    <t>jeremeise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r589591285-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>A couple of friends and I stayed at Extended Stay America for a concert and it was an amazing and relaxing stay. Ditta and Joss made the stay welcoming and enjoyable, they were extremely nice and helpful. Every time I asked for more dishes and towels, they were quick and nice. I definitely will have this hotel in mind when I plan more trips nearby.More</t>
   </si>
   <si>
+    <t>guestnamehere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r584351527-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>This hotel looks fine from the outside, but inside it is old, outdated, disgustingly smelly, and more like a cheap dorm than a real hotel. It is FAR below the standard for any reasonable hotel in this area and price range, and should have been completely renovated long ago. The rooms have sad old furniture, the hallways smell of curry throughout (apparently many residents are cooking in their rooms), the hallway carpets are disgusting, the walls let even quiet conversations in the adjacent room through ... . This is a terrible hotel. I checked out three days early and moved to a FAR better hotel (the Wyndham Irvine) at the same rate. I will never come back to this hotel.More</t>
   </si>
   <si>
+    <t>Grwsm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r582730178-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>My girlfriend and I stayed at Extended Stay America in Irvine from around December or January until today, so around 5-6 months. We were extremely satisfied with the service, room, and environment. 7/11 was a two minute walk from our room which was another huge plus. This was the first time we’ve stayed at a hotel this long, and I am very happy we chose this one. The staff was very friendly, the coffee and muffins at the front desk were great every morning, and everything was very comfortable. I was able to connect an Apple TV in the room after paying for high speed internet and it worked extremely well 24/7. We hope to come back again and would definitely recommend it to anyone. Thank you!More</t>
   </si>
   <si>
+    <t>Heidi T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r578693889-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>We checked into rm 115 and the room was reasonably clean looking superficially, but then one of the night stand lights did not turn on, and in checking to make sure it was plugged in the dirt and dust (at least 5 -15 years worth) was on the carpet under the bed and behind night stand and along the side of the wall. Then it seemed so dirty I checked the sheets and there was black lint and some long black hairs in them. I picked them out and went to sleep because I was exhausted. In the morning the bath/shower drain would not drain. I asked to change rooms the next day. Staff were friendly and accommodating. My sister and I went into rm 154. The room initially seemed cleaner, but on closer inspection, it also was not clean, there were no plastic cups or shampoo, and the blow dryer did not work and the air conditioner did not cool down the room. Also the bathroom facet was about to come off the sink. We told the office staff both days and they were nice, and said that they are available 24/7. But after we changed rooms, the first girl told us they can only change rooms in the morning and it depends on availability. Plus each morning the staff was out of the office for 5-10 minute (apparently there is only one staff member at the front desk)...We checked into rm 115 and the room was reasonably clean looking superficially, but then one of the night stand lights did not turn on, and in checking to make sure it was plugged in the dirt and dust (at least 5 -15 years worth) was on the carpet under the bed and behind night stand and along the side of the wall. Then it seemed so dirty I checked the sheets and there was black lint and some long black hairs in them. I picked them out and went to sleep because I was exhausted. In the morning the bath/shower drain would not drain. I asked to change rooms the next day. Staff were friendly and accommodating. My sister and I went into rm 154. The room initially seemed cleaner, but on closer inspection, it also was not clean, there were no plastic cups or shampoo, and the blow dryer did not work and the air conditioner did not cool down the room. Also the bathroom facet was about to come off the sink. We told the office staff both days and they were nice, and said that they are available 24/7. But after we changed rooms, the first girl told us they can only change rooms in the morning and it depends on availability. Plus each morning the staff was out of the office for 5-10 minute (apparently there is only one staff member at the front desk) and they are always in the office due to being pulled by some additional tasks out of the office. There is no way the one staff can single handed fix the lack of proper management!We stayed here because we were only using this place for 7-8 hrs to sleep and get ready while visiting family for 2 days. It was loud as people arrived at 11 pm to 1 am. The air conditioner did not work in the second rm, so we were hot all night. It seemed that the quality control on room cleaning and stocking, and checks on maintenance items was absent. This cost room cost  $270 for 2 nights. This is the worst hotel that I have stayed in in years! More</t>
   </si>
   <si>
+    <t>jcimral</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r569321211-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>No services, dirty and locked in by Hotels.com. Big mistake coming here. Extremely small room with no service. Think three towels for five days, for four people and no restock. Not a great area either.More</t>
   </si>
   <si>
+    <t>WetAndCold</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r567725286-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>My wife booked this stay, so I don't know what others before me have said, but this place was terrible. It's really large and almost entirely occupied, so the money must be flowing in to the owner. I wonder what they do with it, because they clearly don't spend it on staff, maintenance or refurbishment. Specifics: door handle did not work properly, air conditioner didn't work (although they replaced it the next day), carpet was dirty to the point we would put on our shoes to use the bathroom, the cement on the walkway was stained and dirty. Ashtrays on the walkways everywhere, including outside non-smoking rooms- so you are in your room and the air conditioner sucks in the smoke and stinks up your room. My room was run down generally. The person who checked me in was nice and tried to deal with the problems, but she didn't have an alternative room to grant me due to 99% occupancy. I feel sorry for all the employees who have to stay there while working in Irvine. I think their employers put them here because it's the lowest price place. Yuck.More</t>
   </si>
   <si>
+    <t>William C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r544685324-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>My husband used hotwire to get us a room for my 43rd birthday. Online #hotwire gave this hotel a 3 stars and the pictures that #hotwire used for advertisement was far from the truth. After we paid what #hotwire gave us was a 1 star motel... NOt by the beach as we requested and no king size bed like we asked for...What hotwire posted online is different locations/different name on the hotel and its not by the beach... I have taken a screen shot on what #hotwire used for their advertisement of a beautiful pool and when we got there the pool had algae growing and the hot tub was full of dirt...#hotwire is putting out false advertisement and they will continue to do this due to #hotwire has no refund policy, so you are stuck with what ever they give you...Very very bad experience... Dont use hotwire...More</t>
   </si>
   <si>
+    <t>bobbiec868</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r536859113-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>This place is so disgusting to be in the Irvine area. Stay away!! The odor &amp; carpet was disgusting. The outside grounds were unclean. The toilet leaked toilet water!! Save yourself the worry &amp; frustration with this place. More</t>
   </si>
   <si>
+    <t>N9182EVthomasw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r536766841-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>I have stayed at this hotel several times over the past few months.  This is a fairly descent hotel for a great price.  Front staff was exceptionally friendly.  Check-in was super fast and easy.  There is plenty of free parking.  It's not fancy or anything, but it has all the essentials and was clean and comfortable.More</t>
   </si>
   <si>
+    <t>aus-shontel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r532460526-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>A simple clean suite.  Do remember to ask for the kitchen utilities at the front desk when you check in though.   A mall is a few feet walk from the back of the hotel..juice bar, Starbucks etc. A great location when doing business in Irvine.  Basically a reasonable price for a simple clean hotel that is quiet at night.  Customer service was really outstanding. The girls were friendly, efficient &amp; sweet.  And the Manager Gil went out of his way to be helpful..loaned me a cord to recharge my phone &amp; made arrangements to extend my room at short notice.  Professional, polite &amp; a gentleman at all times.  I will stay there again &amp; recommend to othersMore</t>
   </si>
   <si>
+    <t>mmellott8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r523592613-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -495,6 +534,9 @@
     <t>I am rating this as 4 stars. The room is pretty decent for long term business needs. I have had a couple of issues which were addressed right away. The staff are friendly and prompt when dealing with these issues. the only thing I wish was different, is there is no pool at this complex. If there was I would rate this 5 stars. More</t>
   </si>
   <si>
+    <t>376aracelir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r513165226-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>Rooms a little old but  comfortable. Plenty of parking in the hotel parking lot close to the rooms .  Call market and coffee shop very close and we can walking distance  Hotel staff very nice and did all they could to help me More</t>
   </si>
   <si>
+    <t>JoanneZR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r532509509-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -540,6 +585,9 @@
     <t>This place is designed for business travelers for an extended stay who are not looking for any frills, a hot-plate, microwave and mini-fridge in a tiny room with no place to put their stuff must be heaven to them. No pool, nothing decent to eat in the morning (just coffee, packaged muffins and granola bars that the first people up in the morning must all eat and staff do not refill), no supplies in the kitchen at arrival so you have to beg the front desk for even a coffee maker, but don't try to do that after 10:30 PM because no one is there. This is not a vacation destination. Fellow who checked us in did his best, but he said he was the laundryman at 1:00 AM. Didn't we know we were supposed to come earlier? No. Doesn't the chain know how to provide customer service? I am not familiar with this chain so maybe this is normal for them but won't be going back.More</t>
   </si>
   <si>
+    <t>tomhW8113CL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r509205571-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -564,6 +612,9 @@
     <t>Room was run down, not cleaned properly and bugs present. The website made the facility look a lot better than it really was. It is quite outdated and desperately in need of at least minor renovations. The cooking equipment was cheap not very good.More</t>
   </si>
   <si>
+    <t>705almac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r508441841-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -588,6 +639,9 @@
     <t>Won't go back there because of Samantha. She ruined my time there. The accommodations were great but her customer service was the poorest I've encountered in a very long time. She needs to go back to training in how to treat people and when you're at work whatever issues you may have at home don't bring them to work or don't work in customer service!More</t>
   </si>
   <si>
+    <t>Julia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r507746413-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -612,6 +666,9 @@
     <t>Room was awful - dirty carpet, mildew and the of smell of sewage in the bathroom. Spend the extra money and stay at the Marriott down the road. Don't bother wasting your money here. Not worth the bargain you think you're getting More</t>
   </si>
   <si>
+    <t>Sierra T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r499707038-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -636,6 +693,9 @@
     <t>Booked online for our stay and arrived early, spoke with the front desk to let us know that the earliest our room would be available would be 1pm. They let us know they would call us when our room is ready. We did not receive a call. Showed back up at the location at the front desk let us know there were two rooms clean (none that were on the bottom floor as requested) and the cleaning crew was gone for the day at 5 pm. We settled for a second floor room and went to check out the room and it was disgusting. There was food packages and goldfish scattered in the pantry, the shower was dirty, the bed skirt had unknown substances on it, the counters were sticky from not being wiped down, and the flooring was coming up in the kitchen area. We went back to the front desk and Bridgette let us know that there were no other rooms clean for us to check in and the staff could not clean the room again because they were gone for the day. We canceled our stay and had to contact the online service that we used to book the room online to let them know we canceled it so that they would not charge us $500 cancelation fee. They had to call the hotel to confirm the room was not suitable and Bridgette let them know the...Booked online for our stay and arrived early, spoke with the front desk to let us know that the earliest our room would be available would be 1pm. They let us know they would call us when our room is ready. We did not receive a call. Showed back up at the location at the front desk let us know there were two rooms clean (none that were on the bottom floor as requested) and the cleaning crew was gone for the day at 5 pm. We settled for a second floor room and went to check out the room and it was disgusting. There was food packages and goldfish scattered in the pantry, the shower was dirty, the bed skirt had unknown substances on it, the counters were sticky from not being wiped down, and the flooring was coming up in the kitchen area. We went back to the front desk and Bridgette let us know that there were no other rooms clean for us to check in and the staff could not clean the room again because they were gone for the day. We canceled our stay and had to contact the online service that we used to book the room online to let them know we canceled it so that they would not charge us $500 cancelation fee. They had to call the hotel to confirm the room was not suitable and Bridgette let them know the room was clean and not to still charge us the cancelation fee because the room was clean. We had to then walk Bridgette through the room to show that it was not cleaned. Needless to say the customer service was horrible and we spent hours getting this settled so that we weren't charged a fee for cancelation for a room that we would have stayed in if someone could have cleaned it and trying to find a hotel for our stay last minute. More</t>
   </si>
   <si>
+    <t>Martin M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r499548634-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -657,6 +717,9 @@
     <t>Price is good in comparison to most other hotels in the area.  Right next door to eateries, convenience store and a Starbucks.  Rooms are a little smaller than most Extended Stay Hotels I have been in, and there can be a lot of noise and commotion from folks partying at this location.More</t>
   </si>
   <si>
+    <t>Thangeswaran N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r499306886-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -681,6 +744,9 @@
     <t>Stay was Awesome. Like to stay if I visit Irvine. Service in Hotel is Good. Bets thing is that it is near Irvine Spectrum. Ambiance near the room is also great. I would recommend it to my friends too.More</t>
   </si>
   <si>
+    <t>Cyber B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r491358364-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -708,6 +774,9 @@
     <t>I only stayed here 2 nights.  The room was large and clean. It had a kitchenette, large refrigerator, microwave and flat screen television.  I don't know if they offer breakfast or not. I was not told about breakfast when I checked in, so I assume that they don't. You can walk to Brueggers bagels which is in a little shopping center next door. There is also a convenience store and a coffee shop.  The only thing that seemed odd to me, was they charged extra for room service. I didn't use the service, but since I can't select NA, I marked it as poor.  There are 2 options for wifi. The free option is better than nothing but don't expect high speed internet.More</t>
   </si>
   <si>
+    <t>maggiebewell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r487158923-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>My 2 cats and I spent 3 nights in peace and comfort together while house was being fumigated.  Room appeared recently updated/remodeled. Closet roomy enough for cat beds, cages, my stuff. Kitchen had sink, microwave, cook-top, and new fridge, many cupboards.  Bed comfy, A/C  fine. Openable window a plus.  Bathroom big, all in good order.  Counter-table in kitchen allowed eating dinner while watching TV.  Parking showed lots of occupants, but hotel was peaceful.  Staff was helpful from reservation call to late checkout. They found the perfect pan to cook my dinner.  I saved a fortune in cat boarding fees and food.  It was a successful,  pleasant stay.More</t>
   </si>
   <si>
+    <t>SDgal43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r480384412-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -759,6 +831,9 @@
     <t>The rooms and property were super clean. The front desk staff were friendly and helpful. When I needed extra towels they were happy to comply. Great place to stay and would recommend it to everyone. The price was a great deal too!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r475981672-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -783,6 +858,9 @@
     <t>The room itself is comfortable, the size is quite spacious, cleanliness is great, only one feedback that there was no light in the luggage rack area, overwhelmed me whilst doing packing and unpacking. The minus part is only the breakfast, not many choice and seems doesnt want to provide one.More</t>
   </si>
   <si>
+    <t>Isaac O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r469512313-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -810,6 +888,9 @@
     <t>Our room was plenty large enough for the two of us.  The kitchen area was sufficient for severals days' stay, but we had to ask for cooking utensils, toaster, pans, etc.  The area is nice, pretty, and appeared safe.   Starbucks and a couple of fast food places are adjacent to the property.  There is a Walmart a few blocks away.More</t>
   </si>
   <si>
+    <t>pnc47292019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r468575307-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -837,6 +918,9 @@
     <t>This is my third visit to this hotel. I am a frequent visitor to this area. This is a great location. good stuff nearby. Rates are good for the area. Get what you pay for it seems. Each time we have been here the room has not been properly cleaned. This time, a used baby pacifier on the floor, empty water bottle in the closet. bathtub with sand and dirt. None of these life threatening just annoying. BTW, the receptionist at night is awesome, friendly, and very helpful!More</t>
   </si>
   <si>
+    <t>Jonathan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r453208966-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -864,6 +948,9 @@
     <t>In the Irvine area for work training.  This place offers small rooms with limited kitchen space. Very simple and spartan. This is not the Ritz so don't expect too much. Coffee and muffins in the office during breakfast.  More</t>
   </si>
   <si>
+    <t>665josselineh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r444703985-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -891,6 +978,9 @@
     <t>The staff is nioce enough, however, the conditiooons of the rooms are basically old and in need of renovations...had many issues on each stay there and stayed there on 3 separate occasions. Will not be staying there again.More</t>
   </si>
   <si>
+    <t>briankmosby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r442868840-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -918,6 +1008,9 @@
     <t>nice area and location.  the room was very dated, carpet old and stained.  The bed comforter and feel was not good.  Outside doors and had the feeling of a very cheap hotel.  I would not stay here again however for the location and price I do see why someone might, just not they would return.More</t>
   </si>
   <si>
+    <t>Marja D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r420296464-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -940,6 +1033,9 @@
   </si>
   <si>
     <t>we read a lot of negative comments about this hotel but stayed anyway for the close proximity to the train station. I am glad we did ! Check in was fast and easy and picking kitchen supplies is a great way to go. Within 5 minutes all the items were delivered to our room. Our room was clean and spacious, so is is the bathroom and the kitchen was perfect with a full fridge/freezer. The airconditioning is efficient and very quiet.Parking is convenient and ample. We stayed for 2 nights and had no issues. The breakfast is as described "Grab and Go" and worked just fine. There is a great bagel place around the corner! Close to Spectrum also ( $6 Uber)More</t>
+  </si>
+  <si>
+    <t>dontwr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r417195668-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -973,6 +1069,9 @@
 But, a deeper issue for me, that may be less obvious, is InnFlex is a proxy that allows them to monitor your Internet use. I attached a screen capture of my web browser's warning. InnFlex calls that a "feature" where they monitor your traffic to "protect" you from viruses. Since at sign-up, they demand your name, I wonder if they are selling business travelers' Internet habits. Only a question since I don't know. Instead of continuing the sign-up process with InnFlex, I bought a hot-spot from my cell phone provider to...Extended Stay America at 30 Technology Dr in Irvine, CA is IMO, a lost opportunity. The location is OK, there's some construction up the street that has this being a very noisy place, but that's temporary. However, maintenance and cleaning is poor. We had to look at three or four rooms to find one with fewer dings on appliances and cabinets. Even with the room we settled on, we cleaned the bathroom tile and found lots of dust under the couch and gum stuck to the wall.For business, Internet is critical. My big issue was the Internet provider they decided to use, InnFlex. Apparently not all Extended Stay America locations use InnFlex, but the '30 Technology Dr' location did during our stay in the summer of 2016. Most "get" the problem that with their free Internet, one must pay to get Internet rates most hotels provide for free.But, a deeper issue for me, that may be less obvious, is InnFlex is a proxy that allows them to monitor your Internet use. I attached a screen capture of my web browser's warning. InnFlex calls that a "feature" where they monitor your traffic to "protect" you from viruses. Since at sign-up, they demand your name, I wonder if they are selling business travelers' Internet habits. Only a question since I don't know. Instead of continuing the sign-up process with InnFlex, I bought a hot-spot from my cell phone provider to use until I could move out of Extended Stay America.As soon as we could, we moved to the nearby Candlewood Suites in Lake Forest, CA. It was clean and their free Internet was without issue.More</t>
   </si>
   <si>
+    <t>SWSL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r416988885-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -997,6 +1096,9 @@
     <t>The place is fine, rooms were good.  What was irritating is arriving and no place allocated  to park at office to check in.  Then the internet wifi is overlycomplex.  Connected but nothing.  Eventually a web page may appear asking for a code and your name address room email,  what else.  Ridiculous with a bunch of crap to fill in but what they are doing is getting ready for the upsell so  they can offer and charge you extra for better internet.  Based on this alone, Ill pick another chain next time. I want internet that works smoothly and readily, not a sales oportunity for the company that mines my info.More</t>
   </si>
   <si>
+    <t>joyfourme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r391885763-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1024,6 +1126,9 @@
     <t>Checked in for Concert at Irvine Meadows.bathroom was filthy, moldy, fixtures didnt work, phone looked like hadn't been cleaned in ages. the location is great to the Irvine Meadows Find another place.More</t>
   </si>
   <si>
+    <t>jil h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r390574609-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1048,6 +1153,9 @@
     <t>They helped me to find the lowest price and the room was nice and clean. Staff was good and polite. It comes with a full kitchenette and you ask for the utensils, like plates cups silverware and toaster ECT. Good service. Standard comfortable beds, coach, pillows and mini dining. More</t>
   </si>
   <si>
+    <t>VaZoC_Yang2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r389199804-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1072,6 +1180,9 @@
     <t>Stayed here over weekend. Basic Extended hotel type room with    -full size frig (basically a small kitchen. Decent and clean.  A good place to sleep. Poorly insulated, wifi is free but only 512K... So slooooooowww.Really basic continental breakfast. Better than nothing.Don't expect too much and you'll be fine, otherwise look elsewhere.More</t>
   </si>
   <si>
+    <t>KDW105</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r369723326-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1099,6 +1210,9 @@
     <t>Staff are nice and vaguely clean, but otherwise terrible. One would go crazy staying there for an extended stay. Rooms look like 70s motel chic. Breakfast is a joke. Checkin area tiny. Thankfully there are stairs..elevator iffy.. not close to recommended. All looks ok from the outside but dont let that fool you...More</t>
   </si>
   <si>
+    <t>Jami L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r368768535-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1126,6 +1240,9 @@
     <t>Bad choices in a partner have required my children and I to stay in far too many hotels recently. Though the room is a little small for the price and there is no garbage disposal :(.. the staff makes it totally worth the money! We have been here long enough to have dealings with a whole handful of font desk employees. All of them ahve been smiling and friendly. They have treated my children nicely and been willing to help in any way! They haven't once treated us as a bother, even working as a team to help us out quickly!More</t>
   </si>
   <si>
+    <t>Scott S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r361271230-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1144,6 +1261,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Lisa  D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r335575835-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1162,6 +1282,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>sunigrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r334831166-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1183,6 +1306,9 @@
     <t>I was happy to find this hotel was pet friendly but once we stayed I found that a bad thing because they don't require the guests with pets to clean up after their pet.  The outside area of the hotel is very dirty everywhere.  I've been staying here a month and have been cleaning up the dog poop from my own dog as well as from all the other dogs staying here so that my dog and I wouldn't be walking in old poop.  The room has been ok but I wasn't real pleased with the weekly cleaning they have been doing, I had to clean the bathroom sink and toilet once right after housekeeping had been here.  They also don't keep the laundry room clean either.  The staff here doesn't seem to have any pride in their business.  I was told Irvine was a classy area of CA but this location seems to get guests that fit with their staffs lack of care for their facility.  I've stayed in a lot of hotel/motels around the country and the grounds of this hotel is probably the worst I've experienced.More</t>
   </si>
   <si>
+    <t>Mohit_parmar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r334344448-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1198,6 +1324,9 @@
     <t>Nice place to stay, very good staff. accessible location, near to main city hub.Neat and clean place...friendly staff in this hotel, they are always ready to help and nice behavior. Decent prices for a night..</t>
   </si>
   <si>
+    <t>Ralph H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r322216125-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1219,6 +1348,9 @@
     <t>I disagree with recent negative reviews about uncleanliness - our room was spic and span clean.  This is not a luxury hotel, but facilities are adequate.  To be honest, I am a smoker and the main reason I chose this place is that they still offer smoking rooms. I expected a kind of 'dump', but was pleasantly surprised by the overall quality and value.  Staff is very friendly and helpful.  Great location if you need to be in this area, with easy access to all the major freeways let alone the great Spectrum Center with shopping and fine dining.  There's a great Bruegger's bagel place, 7/11, Starbucks, etc. a few feet away -- but you can also get fresh coffee and a light snack for breakfast right in the lobby of the hotel beginning 6:30am.  Overall, it served our needs very well but would not feel comfortable just 'hanging out' in the room for a R&amp;R.More</t>
   </si>
   <si>
+    <t>TLRS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r321980639-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1231,6 +1363,9 @@
     <t>The rooms were clean and kept up.  Nothing fancy but it is an extended stay.  Location is great for 2 major freeways plus plenty of shopping and food within a 5 minute drive.  The walls are a little thin, you can hear others opening and closing doors but otherwise we really enjoyed the stay.  We would certainly stay here again.</t>
   </si>
   <si>
+    <t>Daniel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r320927207-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1249,6 +1384,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>MikedaGoat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r312828890-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1267,6 +1405,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>AndynRebecca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r305843449-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1285,6 +1426,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>CrabbyCabby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r294988305-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1300,6 +1444,9 @@
     <t>They had to check to see if our room was ready... wait, I booked it 3 months ago... you have to check? Well, the carpet was wet .... smelled of mildew... shower busted... sorry, we are full, no more rooms... Take your money and UPGRADE to a nicer place... if cheap is your goal...this place is for you!</t>
   </si>
   <si>
+    <t>sweetyparthi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r268956695-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1318,6 +1465,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Jayvenable</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r263339560-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1333,6 +1483,9 @@
     <t>The hotel rooms are small inside and outdated. My room had a hard bed and found spiders inside bathroom. I was planning on staying for three days but went  to Marriott after one day way better experience</t>
   </si>
   <si>
+    <t>Damon B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r259502265-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1351,6 +1504,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Ofer z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r256095924-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1367,6 +1523,9 @@
   </si>
   <si>
     <t>February 2015</t>
+  </si>
+  <si>
+    <t>ThumbsysUp</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r253102000-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1385,6 +1544,9 @@
     <t>I love staying at Extended Stay. It's close to my work and gives me everything I need to be comfortable.  I'm a "tub" person and enjoy a hot bath along with a shower as well. I like fixing my own meals and having a decent size refrigerator for my food. Costco and Walmart, as well as the Irvine Spectrum, are nearby for shopping. My room was quiet which I love too. I highly recommend this as a great place to stay.</t>
   </si>
   <si>
+    <t>WorldDreamer23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r251548314-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1403,6 +1565,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Foodking619</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r235184238-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1418,6 +1583,9 @@
     <t>We booked two queen beds and they said they sold out and gave us one king with a pull out sofa. Then when we entered the room it smelled like a smoke shop, a huge spider was in the shower and hairs were on the toilet. The manager didn't apologize for giving us the wrong room. He screamed at us and said he could only give us a refund which we couldn't take cause it was already 10:00 pm. The room sucked and the staff people are really unfriendly. I do not recommend this hotel. Please don't make the mistake I did.</t>
   </si>
   <si>
+    <t>Alma M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r229811146-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1445,6 +1613,9 @@
     <t>I stayed here after a concert at Verizon theater. I loved this place. The staff was friendly and accommodating. The room was very clean and spacious. I loved that it had a kitchen. It wasn't noisy at all. I will definitely stay again.More</t>
   </si>
   <si>
+    <t>Gracie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r229237923-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1466,6 +1637,9 @@
     <t>The hotel is located a few blocks away from the freeway so you don't hear the noise which we like. Plenty of shops nearby including Walmart, Costco and a big mall.The room was nice and very clean. It has a little kitchenette but no dishes, you have to order a "package" but it wasn't clear on the brochure if there was an extra fee. If you like to have your room cleaned everyday and you're there only for a regular short stay, then this is not the right place because they only clean rooms depending on the number of nights you stay. The only waste basket is underneath the sink, there were no cups in the bathroom, and no box of tissues either. Breakfast is barely coffee, wrapped muffins, oatmeal.More</t>
   </si>
   <si>
+    <t>azrev05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r226340600-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1490,6 +1664,9 @@
     <t>It took over 30 minutes to check in because they didn't know what they were doing.  Spiders in the hallways.  Hair in the refrigerator and microwave.  There was hair on the towels; it looked they picked them up off the floor and just hung them on the rack.  There was mold in the bathroom. The curtain rods were falling off the wall. They rationed out new towels, toilet paper, soap, etc..... like it was gold.  Cheapest place I've ever stayed at.  The grab and go breakfastMore</t>
   </si>
   <si>
+    <t>DarinB352</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r224740324-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1514,6 +1691,9 @@
     <t>I had to stay at Exended Stay in Irvine while looking for a permanent place to stay and because of the uncertainty of my 'homelessness' they were the only place that had a room for a week straight.  The location is good, near many restaurants and stores, but the room was horrible.  It was a 'smoking' room and even though I smoke I thought it was obnoxious.  The AC in my room was just being fixed as I opened the door and the Maint guy was nice enough to warn me the carpet would be wet from the problem for a while so if I wanted another room we could do that.  We tried...sigh..the room next door actually.  It was markedly WORSE smelling than mine so I kept mine, wet carpet and all, for a week.  Would certainly make any effort to not stay here again unless everything else was booked and I had no car to sleep in...then...maybe...More</t>
   </si>
   <si>
+    <t>Patrick A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r224639709-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1535,6 +1715,9 @@
     <t>I was in Irvine for a week of training and Extended Stay was on the same street.  The room was a little smaller than what I had experienced years ago (closer to LA) but it was roomy enough, and the bed was (maybe) a little firmer than some would prefer; but I was very comfortable.  My online reservations were quick and painless, and my check-in was equally so.  I actually felt more comfortable than I do at home with the peace and quiet and all the amenities I needed.  The bathroom was spacious, as was the shower.  The refrigerator and sink were very handy but I didn't use the stove.  The free WiFi was limited but I had little to no problem using it (I could have paid for more bandwidth, though).  I was easily able to get work done as well as settle in to a relaxed comfort.  It’s near Walmart, Starbucks, and the Spectrum, and with easy access to Alton and Interstate 5.  And it's a short distance from John Wayne Airport.  I will definitely stay here again.My experience at Extended Stay America has always been good.  This one in Orange County, although a little different, was really no exception.  I always feel welcome and accommodated.More</t>
   </si>
   <si>
+    <t>Gregory L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r218006763-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1562,6 +1745,9 @@
     <t>Pet friendly, extended stay, these are generally nice attributes. Breakfast is nothing to call home about, but considering my living situation limbo, it's good enough. It has a fridge, it's close to the Irvine Spectrum, Wal-Mart, and all that (Target too, if you're not a fan of Wal-Mart). The room is good, the wifi sucks if you're cheap like me, there's a decent sized fridge, stove, microwave (no oven), desk and plenty of surface space. The bathroom is unexpectedly huge and the closet is walk-in sized. Even the sofa bed is quite comfy.More</t>
   </si>
   <si>
+    <t>CaliGirl738</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r214123743-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1577,6 +1763,9 @@
     <t xml:space="preserve">Stayed here during July 4th weekend &amp; it was just OK.  Nothing special about it.  Check in was fast.  The room had a kitchen with fridge, microwave, &amp; stove which we did not use at all.  The room was pretty small for a "studio suite".  The bed was small &amp; uncomfortable.  My back was hurting.  The location is nice, around stores, restaurants, &amp; shops.  Our room was right next to Starbucks &amp; 711, literally a few steps away.  I wouldn't stay here again unless I had no choice! </t>
   </si>
   <si>
+    <t>Esqtodd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r210158575-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1598,6 +1787,9 @@
     <t>Booked this hotel due to it's convenient location to The Spectrum and good price.  Unfortunately, the old adage "you get what you pay for" is certainly true at this place.  The room I stayed in wasn't per se "dirty", but it had a musty smell to it.  Also, the front desk people COULD NOT CARE LESS about customer service.  No eye contact and did so much as even look up when checking in our out. There were some seedy characters on the North side of the hotel, I think they might be "extended stay" resident.  A couple of cool broken down trucks parked in the front, too. The convenient location of a Starbucks was the highlight of my stayMore</t>
   </si>
   <si>
+    <t>Theresa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r204618340-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1616,6 +1808,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Abdolreza L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r203880932-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1631,6 +1826,9 @@
     <t>I stayed there Friday night and left my bag in the room.. Next day I checked out but forgot to take my bag... Called back to get my bag..they gave me the bag but zipper was open and my lab top was not there</t>
   </si>
   <si>
+    <t>Chiarre-Anne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r203666258-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1649,6 +1847,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Pat M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r193937994-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1667,6 +1868,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Andres O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r189283464-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1694,6 +1898,9 @@
     <t>This hotel made my unexpected long term project stay (11mo.) feel like "home away from home" for me. The staff was helpful, responsive to my needs and great to talk to. Yes. It's a business hotel and that's what I expected going in, nothing less. The internet was a little sluggish at times, but it only took a quick phone call to boost up the signal. The location was exceptional as it was close to I-5 and I-405, so it made it easy to get to work and back. I was there through their renovation and was happy they did it. Bed was perfect for me and glad they got rid of those old crunchy towels which were upgraded with some new soft ones -loved them. Had no trouble checking out. Overall great experience.More</t>
   </si>
   <si>
+    <t>Tony J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r188578238-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1718,6 +1925,9 @@
     <t>The beds were perfect, plenty of pillows :) Solid connection of the free WiFi- nice large bathroom.Very clean room and the kitchenette was just right for us. * 1 SUGGESTION-- BIGGER SOFTER TOWELS WOULD HAVE GIVEN YOU A 5 STAR RATING :) -- make that happen and you WILL BE #1 5 STAR with us.This location is  a very private &amp; comfortable transitional residence for us, The Staff and Cleaning crew were especially pleasant and very accommodating. I highly recommend this location over ANY OTHER hotel in this price range. EXTENDED STAY AMERICA -  you cant go wrong - they have it ALL.More</t>
   </si>
   <si>
+    <t>Jonathan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r182367011-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1745,6 +1955,9 @@
     <t>Outside of the staff and location, there wasn't really anything exceptional about my stay.  The room, while a little shabby and in need of a refresh, was clean and in good working order.  The bed was comfy and the TV worked just fine (would've been nice to have NFL Network to watch the Thursday games).  Overall, the room and services weren't spectacular, but they met all of my needs and expectations.The location is fantastic.  Work, food and coffee and public transportation is all within walking distance.  It's right next to the two main highways in Orange County.  The price is very reasonable, considering how unreasonable prices in Irvine can be.The staff is also fantastic.  They are very attentive and helpful to guest needs.  They are cheerful in addressing your questions/requests, and anticipate future needs.More</t>
   </si>
   <si>
+    <t>marymohn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r182071298-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1772,6 +1985,9 @@
     <t>This place is adequate.  It met my needs for my business trip.  It was a bit shabby with linens that were very cheap.  There are no nice extras.  The kitchen and supplies were adequate with 2 forks, 2 paring knives, and 2 tablespoons.  There is no pool, lobby, or other area outside of your room to hang out.  The little strip mall next door has a very nice outside area and the Starbucks is a plus.  There was plenty of parking and the location is good.More</t>
   </si>
   <si>
+    <t>Joel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r181890279-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1788,6 +2004,9 @@
   </si>
   <si>
     <t>In general the hotel is good, clean and everyting works as is supposed. Internet, TV, AA.I think what I liked from this hotel is the people, all the people is very kind and try to help me in all they can with tips about the zone, shops and all I need. It was like if I have friends in the town.More</t>
+  </si>
+  <si>
+    <t>D M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r174758021-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -1810,6 +2029,9 @@
 My second visit was August 13th. and that was an even worst experience. Then I check into the room and got everything settled before going to dinner. When I returned I was ready to settle in and watch T.V. and go to sleep. I went to turn the T.V. on and it did not work. I went to the front desk carrying the remote and got new batteries before going back up and it still did not work. When I checked in I also ask for a ground floor room due to having a broken arm and not wanting to carry bags upstairs. I was told they had no ground floor rooms. When I went back to the front desk to complain that the T.V. was still not working the front desk person who was very nice said she could put my in another room and gave me two keys to check the room before I moved again. Both rooms...I have stayed at this hotel twice and both times was a horrible experience! The first time was on July 16th. where I checked into the room and the air conditioner was off. So I turned it on thinking it would cool the room but finally realized it did not work and was blowing hot air. So they switched me to another room which of course means having to re-pack everything to move to the next room which was fine. My second visit was August 13th. and that was an even worst experience. Then I check into the room and got everything settled before going to dinner. When I returned I was ready to settle in and watch T.V. and go to sleep. I went to turn the T.V. on and it did not work. I went to the front desk carrying the remote and got new batteries before going back up and it still did not work. When I checked in I also ask for a ground floor room due to having a broken arm and not wanting to carry bags upstairs. I was told they had no ground floor rooms. When I went back to the front desk to complain that the T.V. was still not working the front desk person who was very nice said she could put my in another room and gave me two keys to check the room before I moved again. Both rooms were on the ground floor. I chose a room and again had to go pack everything back up, carry it back down the stairs and back to my car before finally settling into the room. I thought everything was fine until the next morning when I got up and went to make coffee and the coffee pot did not work. When I checked out I again complained about that issue and was informed they would have the G.M. contact me and something would be done about all the problems I had experienced with this property. I left my phone number but of course I never heard from the G.M.  I have lived in and out of hotels for many years and this without a doubt is the worst hotel I have ever experienced!More</t>
   </si>
   <si>
+    <t>Dailyrider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r173663363-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1834,6 +2056,9 @@
     <t>Had to get my house fumigated and needed a place with kitchen, etc. Found This Extended Stay America in Irvine at a great rate. I was shocked and pleased with the property. The room was a good size, the bed was comfortable and there was a kitchen ready to use. Bathroom was roomy with a tub/shower. I was very pleased with my experience and I would definitely stay here againMore</t>
   </si>
   <si>
+    <t>callfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r170948502-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1852,6 +2077,9 @@
     <t>This hotel has been a disappointment since the very first day. The quoted price we were given was not honored, we have had to pay $500 more than expected, even after speaking to a manager about the price. The toilet in our original room was broken, causing us to have to move rooms with no compensation. The internet has worked a total of 3 times during our stay. My husband has had to find other locations to complete his at home work tasks, causing him to be away from his family longer than necessary. We have tried to be very courteous to the maid service and leave the room while they clean, this last week our room was not cleaned. The previous cleanings have not been great either. I feel I am still wiping everything down before I let my son down to play. When I called and asked about this I was told the room would be cleaned sometime the next day. I would like a general time so I can plan my sons naps accordingly.Overall, this has been a terrible experience and we will not be coming back. If there was another establishment that offered a kitchenette, we would have checked out earlier.More</t>
   </si>
   <si>
+    <t>SandraD320</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r164556098-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1879,6 +2107,9 @@
     <t>I made my reservation at the last minute online with no problem (I prefer making a reservation online instead of on the telephone as it just makes it easier for me).  It's a very simple process and you easily see what is available.  I was a little bit frazzled after an extremely long day on the road and the girl at the front desk took care of my check-in and answered all of my questions in a professional manner.  My room was clean, comfortable and quiet, and provided everything I needed.  The grab &amp; go breakfast is perfect for a cup of coffee or a bite to eat.  This location is close to a variety of restaurants and shopping.  Extended Stay America is always my first choice whenever I travel.  (No, I do not work for them... I just appreciate what they offer).More</t>
   </si>
   <si>
+    <t>megadeaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r164113854-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1897,6 +2128,9 @@
     <t>Avoid this MOTEL and choose from many, many other options in the Irvine Spectrum area.We were forced to change rooms, with same-day notice, mid stay.  As we were in the middle of a relocation, this was particularly straining.  This motel is currently remodeling all rooms on site.  We moved to a newly remodeled room where the bathroom door fell off its hinge.  Remodeling will not change the fact this is a 2-story motel with outdoor parking in the middle of a white-collar office ghost town at the high-traffic intersection of Alton and Technology.BEWARE misleading advertisements: "Studio suite rooms" are 220 square feet.  "Fully equipped kitchens" have electric stoves, under powered microwaves, and no oven.  "Convenient workspace" is the kitchen counter.  Staff are poorly trained and misinformed.Service is abhorrent.  Housekeeping calls before 7am in hopes you are there and will avoid cleaning your room.  Laundry facility faces the main street.  Trash is everywhere.  Grab and go breakfast includes cereal bars and individually wrapped muffins with burned coffee.  No one addresses barking dogs, loud banging, nearby smoking, or left dog waste.Please spare yourself the misery I experienced and book anywhere else.More</t>
   </si>
   <si>
+    <t>JCLi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r160219279-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1918,6 +2152,9 @@
     <t>Making a reservation on the phone with the property was, let's just say, one that took a bit of patience.  The female front desk agent seemed rattled easily and was quite curt with answering my questions about the location and extent of remodeling the property had undergone.Check-in was smoother as I checked-in during the shift after that female front desk agent.  The male front desk agent who performed the check-in was far more informative and courteous.  Even he concurred that the female front desk agent to whom I referenced was short on patience as she also worked as a kindergarten teacher (strange as I would think one who is a kindergarten teacher would need to have tons of patience).I was informed that my room was one of the renovated ones ... but the carpet had some tears and black marks and the kitchen countertop had quite a few burn marks as well.  And the kitchenware (pots/pans/dishes) that was in the cabinents were heavily stained.The room was quite cramped and the bed was pretty lumpy and not conducive for a good night's sleep.  On the plus side, the bathroom clearly had new fixtures and curtains and was clean.For the convenience factor, there was a Wal-mart nearby.More</t>
   </si>
   <si>
+    <t>Zardari19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r156033247-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1942,6 +2179,9 @@
     <t>I stayed here for a weekend and their rooms were outdated, but clean. The location was good and next to the spectrum mall and their front desk people were very nice and helpful! Will recommend and come back again.More</t>
   </si>
   <si>
+    <t>zhangy1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r151352435-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1966,6 +2206,9 @@
     <t>I like the convenience of having a kitchen here.  The location is awesome, easy access to the freeway.  The security and cleanliness are both pretty good.  I've stayed here numerous times and plan to come back in the future too.More</t>
   </si>
   <si>
+    <t>Raul S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r149006281-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -1990,6 +2233,9 @@
     <t>Low quality hotel room, mediocre service.The sofa bed mattress had huge, ugly stains all over. The carpet also VERY dirty, with  multiple stains.The sofa bed was incredibly uncomfortable, almost impossible to sleep on it. It was higher in the MIDDLE than at the ends, and it wobbled and moved all the time. The room was not cleaned properly before we occupied it. I found lots of food leftovers under the air conditioner/heater unit and under the bed.   The AC/heater unit was very old and NOISY. It woke us up multiple times every night, every time it switched itself on.After the towels were all used I called the front desk to ask them to change them. They didn't. I brought the dirty towels down myself, and they said they would send someone with clean ones. They didn't. My son had to chase down one of the cleaning ladies and ask her for clean towels. I also asked for an extra blanket, they said they would bring one, but we never got it.The only reason I picked this hotel was due to its location. However, it's very unlikely I will ever stay at this hotel again, or at any hotel from this chain for that matter.More</t>
   </si>
   <si>
+    <t>Irma J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r138817350-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -2017,6 +2263,9 @@
     <t>WE FOUND BED BUGS, and floors were unbelievably dirty. There were more issues, but I don't think you need any additional reasons not to stay here, BUT this site requires a 200 word minimum for reviews. So here it goes - the towels are small and fiber barren, we had to purchase a plastic shower curtain since the one provided was a joke, the florescent lights made me want to gouge my eyes out, the TV is glued down, which makes it impossible to reposition if you need to. (Important if you want a work area for a computer, since there is no desk) The bed was crazy loud, the pull out sofa sleeper didn't even have bedding or a sheet on it. The sofa sleeper was the worst I have ever seen - it was oddly angled with your head propped much higher than your feet. Good luck sleeping like that. I actually went to the office to tell them ours was broken, and they said they just "work that way".Did I mention the floors were disgusting? Oh I did? How disgusting were they you ask? Gross enough for us to acquire our own shampooer to make it more livable.Worst hotel experience of my life - and I've stayed in some terrible places.More</t>
   </si>
   <si>
+    <t>veronicaindonesia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r138000975-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -2041,6 +2290,9 @@
     <t>It's good for the location and the price is unbeatable if you need a long term lodging. It provides good coffee and simple breakfast. The staff are friendly. It's safe and easy access to the freeway and shopping mall.More</t>
   </si>
   <si>
+    <t>anonymousor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r136354965-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -2068,6 +2320,9 @@
     <t>It was still a Homestead Suites when I was there in May... Pergo flooring and flat screen TVs for under 100 bucks a night (that's how you know you're in the OC, lol)... rooms were overall awesome for the price pointLocation is very good, closest hotel to the Irvine train station, if you're into that sort of thing, some decent food options in the area too (like donuts at the train station chinese place)Bathroom has a bit of a sulphur smell but that was my only issue (although a corkscrew would be nice either in the rooms or at the front desk)Too bad it's an exterior corridor property which always gets on my nerves a littleMore</t>
   </si>
   <si>
+    <t>Martha O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r129956221-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -2092,6 +2347,9 @@
     <t>We always have a great experience.  The team did a wonderful job.  Keep up the great work.More</t>
   </si>
   <si>
+    <t>ALM380</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r129129029-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -2113,6 +2371,9 @@
     <t>If you're looking for a nice hotel with better than average accommodations, you want to visit Homestead Suites Hotel in Irvine, CA.  I truly appreciate their staff, living quarters and room rates.  I would definitely recommend Homestead Suites Hotel to my family, friends and colleagues without hesitation.  Well done!More</t>
   </si>
   <si>
+    <t>RL44LV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r128623578-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
   </si>
   <si>
@@ -2129,6 +2390,9 @@
   </si>
   <si>
     <t>From the moment I walked in to check-in I new I would enjoy my stay.  There were several guets in front of me and the phone was ringing and the person at the front desk was handling everything professionally and very polite; I was impressed.  After I observing her, I knew the customer service at the hotel was going to be great.  The room was very comfortable and is was a nice and quiet area which was perfect because I needed some rest.  I was very satified with my stay and would definately stay here again when I am in need of a room.  More</t>
+  </si>
+  <si>
+    <t>lolo420</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32530-d217221-r126563227-Extended_Stay_America_Orange_County_Irvine_Spectrum-Irvine_California.html</t>
@@ -2654,43 +2918,47 @@
       <c r="A2" t="n">
         <v>35190</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2706,56 +2974,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35190</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146667</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2767,56 +3039,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35190</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146668</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2828,56 +3104,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35190</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146669</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2895,56 +3175,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35190</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146670</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
         <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2956,56 +3240,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35190</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>63636</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3017,56 +3305,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35190</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146671</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3078,56 +3370,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35190</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146672</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3143,56 +3439,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35190</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>2252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3210,56 +3510,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35190</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146673</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3281,56 +3585,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35190</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146674</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3352,56 +3660,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35190</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146675</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3417,56 +3729,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35190</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146676</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3478,56 +3794,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35190</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146677</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3539,56 +3859,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35190</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146678</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -3610,56 +3934,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35190</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146679</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3681,56 +4009,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35190</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146680</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3752,56 +4084,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35190</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>15565</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3823,56 +4159,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35190</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146681</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3884,56 +4224,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35190</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>14103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3951,56 +4295,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35190</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146682</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4022,56 +4370,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35190</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146683</v>
+      </c>
+      <c r="C23" t="s">
+        <v>242</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4087,56 +4439,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35190</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146684</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4154,56 +4510,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35190</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146685</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4215,56 +4575,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="X25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35190</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4276,56 +4640,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35190</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146686</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O27" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4343,56 +4711,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35190</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146687</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4408,56 +4780,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="X28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="Y28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35190</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>18465</v>
+      </c>
+      <c r="C29" t="s">
+        <v>300</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="O29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4469,56 +4845,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35190</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146688</v>
+      </c>
+      <c r="C30" t="s">
+        <v>310</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="O30" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4534,56 +4914,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="X30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="Y30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35190</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146689</v>
+      </c>
+      <c r="C31" t="s">
+        <v>320</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4599,56 +4983,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="X31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="Y31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35190</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146690</v>
+      </c>
+      <c r="C32" t="s">
+        <v>330</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="J32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="K32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4666,56 +5054,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="X32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="Y32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35190</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146691</v>
+      </c>
+      <c r="C33" t="s">
+        <v>339</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="J33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="K33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4733,56 +5125,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="Y33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35190</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146692</v>
+      </c>
+      <c r="C34" t="s">
+        <v>349</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="J34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="K34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="L34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O34" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4798,56 +5194,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="X34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="Y34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35190</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146693</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="J35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="K35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="L35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4865,56 +5265,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="X35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="Y35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35190</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146694</v>
+      </c>
+      <c r="C36" t="s">
+        <v>368</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="J36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="K36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4926,56 +5330,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="X36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="Y36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35190</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146695</v>
+      </c>
+      <c r="C37" t="s">
+        <v>377</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O37" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4987,56 +5395,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="X37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="Y37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35190</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146696</v>
+      </c>
+      <c r="C38" t="s">
+        <v>386</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="J38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="K38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="L38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5048,56 +5460,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="X38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="Y38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35190</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>31391</v>
+      </c>
+      <c r="C39" t="s">
+        <v>396</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="J39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="K39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="L39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5113,56 +5529,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="X39" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="Y39" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35190</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C40" t="s">
+        <v>406</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="J40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="K40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="L40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -5182,50 +5602,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35190</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146697</v>
+      </c>
+      <c r="C41" t="s">
+        <v>413</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="J41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="K41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="L41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5239,50 +5663,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35190</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146698</v>
+      </c>
+      <c r="C42" t="s">
+        <v>420</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="J42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="K42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="L42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5302,50 +5730,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35190</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146699</v>
+      </c>
+      <c r="C43" t="s">
+        <v>428</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5365,50 +5797,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35190</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>57509</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5428,50 +5864,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35190</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146700</v>
+      </c>
+      <c r="C45" t="s">
+        <v>442</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="J45" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="K45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="L45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="O45" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5491,50 +5931,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35190</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C46" t="s">
+        <v>447</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="J46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="K46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="L46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="O46" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5552,50 +5996,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35190</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146701</v>
+      </c>
+      <c r="C47" t="s">
+        <v>454</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="J47" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="K47" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="L47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="O47" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5615,50 +6063,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35190</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146702</v>
+      </c>
+      <c r="C48" t="s">
+        <v>461</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="J48" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="K48" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="L48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="O48" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5672,50 +6124,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35190</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146703</v>
+      </c>
+      <c r="C49" t="s">
+        <v>468</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="J49" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="K49" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="L49" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5729,50 +6185,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35190</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146704</v>
+      </c>
+      <c r="C50" t="s">
+        <v>474</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="J50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="K50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="L50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5792,50 +6252,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35190</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146705</v>
+      </c>
+      <c r="C51" t="s">
+        <v>481</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="J51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="K51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="L51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5849,50 +6313,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35190</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146706</v>
+      </c>
+      <c r="C52" t="s">
+        <v>487</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="J52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="K52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="L52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="O52" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5912,50 +6380,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35190</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146707</v>
+      </c>
+      <c r="C53" t="s">
+        <v>494</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="J53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="K53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="L53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5975,41 +6447,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35190</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146708</v>
+      </c>
+      <c r="C54" t="s">
+        <v>501</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="J54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="K54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="L54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -6038,50 +6514,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35190</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146709</v>
+      </c>
+      <c r="C55" t="s">
+        <v>507</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="J55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="K55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="L55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="O55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6101,41 +6581,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35190</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146710</v>
+      </c>
+      <c r="C56" t="s">
+        <v>514</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="J56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="K56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="L56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -6154,50 +6638,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35190</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146711</v>
+      </c>
+      <c r="C57" t="s">
+        <v>520</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="J57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="K57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="L57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6213,56 +6701,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="X57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="Y57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>35190</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146712</v>
+      </c>
+      <c r="C58" t="s">
+        <v>530</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="J58" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="K58" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="L58" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6280,56 +6772,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="X58" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="Y58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>35190</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146713</v>
+      </c>
+      <c r="C59" t="s">
+        <v>538</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="J59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="K59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="L59" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="O59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6347,56 +6843,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="X59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="Y59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>35190</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146714</v>
+      </c>
+      <c r="C60" t="s">
+        <v>547</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="J60" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="K60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="L60" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6412,56 +6912,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="X60" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="Y60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>35190</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>4854</v>
+      </c>
+      <c r="C61" t="s">
+        <v>556</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="J61" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="K61" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="L61" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="O61" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6477,56 +6981,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="X61" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="Y61" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>35190</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>50976</v>
+      </c>
+      <c r="C62" t="s">
+        <v>564</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="J62" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="K62" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="L62" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6542,47 +7050,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="X62" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="Y62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>35190</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146715</v>
+      </c>
+      <c r="C63" t="s">
+        <v>574</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="J63" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="K63" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="L63" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
@@ -6601,50 +7113,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>35190</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146716</v>
+      </c>
+      <c r="C64" t="s">
+        <v>580</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="J64" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="K64" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="L64" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="O64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6668,50 +7184,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>35190</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>3777</v>
+      </c>
+      <c r="C65" t="s">
+        <v>588</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="J65" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="K65" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="L65" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
@@ -6735,50 +7255,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>35190</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146717</v>
+      </c>
+      <c r="C66" t="s">
+        <v>595</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="J66" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="K66" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="L66" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="O66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -6802,50 +7326,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>35190</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146718</v>
+      </c>
+      <c r="C67" t="s">
+        <v>601</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="J67" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="K67" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="L67" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6869,50 +7397,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>35190</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>10837</v>
+      </c>
+      <c r="C68" t="s">
+        <v>608</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="J68" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="K68" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="L68" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6926,50 +7458,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>35190</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146719</v>
+      </c>
+      <c r="C69" t="s">
+        <v>615</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="J69" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="K69" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="L69" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="O69" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6991,56 +7527,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="X69" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="Y69" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>35190</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>38567</v>
+      </c>
+      <c r="C70" t="s">
+        <v>625</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="J70" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="K70" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="L70" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="O70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7062,56 +7602,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="X70" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="Y70" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>35190</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>34742</v>
+      </c>
+      <c r="C71" t="s">
+        <v>634</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="J71" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="K71" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="L71" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="O71" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7133,56 +7677,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>571</v>
+        <v>641</v>
       </c>
       <c r="X71" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="Y71" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>35190</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146720</v>
+      </c>
+      <c r="C72" t="s">
+        <v>644</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="J72" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
       <c r="K72" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="L72" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="O72" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7194,56 +7742,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="X72" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="Y72" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>35190</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>35477</v>
+      </c>
+      <c r="C73" t="s">
+        <v>654</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="J73" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="K73" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="L73" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="O73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7265,56 +7817,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="X73" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="Y73" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>35190</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>6666</v>
+      </c>
+      <c r="C74" t="s">
+        <v>661</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
       <c r="J74" t="s">
-        <v>591</v>
+        <v>664</v>
       </c>
       <c r="K74" t="s">
-        <v>592</v>
+        <v>665</v>
       </c>
       <c r="L74" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="O74" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7338,50 +7894,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>35190</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146721</v>
+      </c>
+      <c r="C75" t="s">
+        <v>668</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="J75" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="K75" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="L75" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="O75" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7403,47 +7963,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="X75" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="Y75" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>35190</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146722</v>
+      </c>
+      <c r="C76" t="s">
+        <v>677</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="J76" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="K76" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="L76" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
@@ -7472,50 +8036,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>35190</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146723</v>
+      </c>
+      <c r="C77" t="s">
+        <v>684</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="J77" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
       <c r="K77" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
       <c r="L77" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7537,56 +8105,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
       <c r="X77" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="Y77" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>35190</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146724</v>
+      </c>
+      <c r="C78" t="s">
+        <v>694</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>619</v>
+        <v>696</v>
       </c>
       <c r="J78" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
       <c r="K78" t="s">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="L78" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="O78" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7610,50 +8182,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>35190</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146725</v>
+      </c>
+      <c r="C79" t="s">
+        <v>701</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
       <c r="J79" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="K79" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="L79" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="O79" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P79" t="n">
         <v>2</v>
@@ -7677,41 +8253,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>35190</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146726</v>
+      </c>
+      <c r="C80" t="s">
+        <v>709</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>631</v>
+        <v>710</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>632</v>
+        <v>711</v>
       </c>
       <c r="J80" t="s">
-        <v>633</v>
+        <v>712</v>
       </c>
       <c r="K80" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="L80" t="s">
-        <v>635</v>
+        <v>714</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
@@ -7738,56 +8318,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>636</v>
+        <v>715</v>
       </c>
       <c r="X80" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="Y80" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>35190</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146727</v>
+      </c>
+      <c r="C81" t="s">
+        <v>718</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>639</v>
+        <v>719</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
       <c r="J81" t="s">
-        <v>641</v>
+        <v>721</v>
       </c>
       <c r="K81" t="s">
-        <v>642</v>
+        <v>722</v>
       </c>
       <c r="L81" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="O81" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7809,56 +8393,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>644</v>
+        <v>724</v>
       </c>
       <c r="X81" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="Y81" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>35190</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146728</v>
+      </c>
+      <c r="C82" t="s">
+        <v>727</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="J82" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="K82" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="L82" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="O82" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7880,56 +8468,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="X82" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="Y82" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>35190</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146729</v>
+      </c>
+      <c r="C83" t="s">
+        <v>736</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="J83" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="K83" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="L83" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="O83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7951,56 +8543,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="X83" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="Y83" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>35190</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146730</v>
+      </c>
+      <c r="C84" t="s">
+        <v>746</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="J84" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
       <c r="K84" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="L84" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="O84" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8022,56 +8618,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="X84" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="Y84" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>35190</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146731</v>
+      </c>
+      <c r="C85" t="s">
+        <v>755</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>672</v>
+        <v>756</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>673</v>
+        <v>757</v>
       </c>
       <c r="J85" t="s">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="K85" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="L85" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8093,56 +8693,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="X85" t="s">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="Y85" t="s">
-        <v>680</v>
+        <v>764</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>35190</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>9338</v>
+      </c>
+      <c r="C86" t="s">
+        <v>765</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>682</v>
+        <v>767</v>
       </c>
       <c r="J86" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
       <c r="K86" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
       <c r="L86" t="s">
-        <v>685</v>
+        <v>770</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="O86" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8164,56 +8768,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>686</v>
+        <v>771</v>
       </c>
       <c r="X86" t="s">
-        <v>687</v>
+        <v>772</v>
       </c>
       <c r="Y86" t="s">
-        <v>688</v>
+        <v>773</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>35190</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>146732</v>
+      </c>
+      <c r="C87" t="s">
+        <v>774</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="J87" t="s">
-        <v>691</v>
+        <v>777</v>
       </c>
       <c r="K87" t="s">
-        <v>692</v>
+        <v>778</v>
       </c>
       <c r="L87" t="s">
-        <v>693</v>
+        <v>779</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>694</v>
+        <v>780</v>
       </c>
       <c r="O87" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8235,47 +8843,51 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>686</v>
+        <v>771</v>
       </c>
       <c r="X87" t="s">
-        <v>687</v>
+        <v>772</v>
       </c>
       <c r="Y87" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>35190</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>146733</v>
+      </c>
+      <c r="C88" t="s">
+        <v>782</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>697</v>
+        <v>784</v>
       </c>
       <c r="J88" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
       <c r="K88" t="s">
-        <v>699</v>
+        <v>786</v>
       </c>
       <c r="L88" t="s">
-        <v>700</v>
+        <v>787</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -8302,56 +8914,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>686</v>
+        <v>771</v>
       </c>
       <c r="X88" t="s">
-        <v>687</v>
+        <v>772</v>
       </c>
       <c r="Y88" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>35190</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>146734</v>
+      </c>
+      <c r="C89" t="s">
+        <v>789</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>702</v>
+        <v>790</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
       <c r="J89" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="K89" t="s">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="L89" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -8375,7 +8991,7 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_273.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_273.xlsx
@@ -2988,7 +2988,7 @@
         <v>35190</v>
       </c>
       <c r="B3" t="n">
-        <v>146667</v>
+        <v>178015</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3053,7 +3053,7 @@
         <v>35190</v>
       </c>
       <c r="B4" t="n">
-        <v>146668</v>
+        <v>178016</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -3118,7 +3118,7 @@
         <v>35190</v>
       </c>
       <c r="B5" t="n">
-        <v>146669</v>
+        <v>178017</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -3189,7 +3189,7 @@
         <v>35190</v>
       </c>
       <c r="B6" t="n">
-        <v>146670</v>
+        <v>178018</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -3319,7 +3319,7 @@
         <v>35190</v>
       </c>
       <c r="B8" t="n">
-        <v>146671</v>
+        <v>178019</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -3384,7 +3384,7 @@
         <v>35190</v>
       </c>
       <c r="B9" t="n">
-        <v>146672</v>
+        <v>178020</v>
       </c>
       <c r="C9" t="s">
         <v>116</v>
@@ -3524,7 +3524,7 @@
         <v>35190</v>
       </c>
       <c r="B11" t="n">
-        <v>146673</v>
+        <v>178021</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -3599,7 +3599,7 @@
         <v>35190</v>
       </c>
       <c r="B12" t="n">
-        <v>146674</v>
+        <v>178022</v>
       </c>
       <c r="C12" t="s">
         <v>146</v>
@@ -3674,7 +3674,7 @@
         <v>35190</v>
       </c>
       <c r="B13" t="n">
-        <v>146675</v>
+        <v>178023</v>
       </c>
       <c r="C13" t="s">
         <v>153</v>
@@ -3743,7 +3743,7 @@
         <v>35190</v>
       </c>
       <c r="B14" t="n">
-        <v>146676</v>
+        <v>178024</v>
       </c>
       <c r="C14" t="s">
         <v>162</v>
@@ -3808,7 +3808,7 @@
         <v>35190</v>
       </c>
       <c r="B15" t="n">
-        <v>146677</v>
+        <v>178025</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -3873,7 +3873,7 @@
         <v>35190</v>
       </c>
       <c r="B16" t="n">
-        <v>146678</v>
+        <v>178026</v>
       </c>
       <c r="C16" t="s">
         <v>182</v>
@@ -3948,7 +3948,7 @@
         <v>35190</v>
       </c>
       <c r="B17" t="n">
-        <v>146679</v>
+        <v>178027</v>
       </c>
       <c r="C17" t="s">
         <v>189</v>
@@ -4023,7 +4023,7 @@
         <v>35190</v>
       </c>
       <c r="B18" t="n">
-        <v>146680</v>
+        <v>178028</v>
       </c>
       <c r="C18" t="s">
         <v>198</v>
@@ -4173,7 +4173,7 @@
         <v>35190</v>
       </c>
       <c r="B20" t="n">
-        <v>146681</v>
+        <v>178029</v>
       </c>
       <c r="C20" t="s">
         <v>216</v>
@@ -4309,7 +4309,7 @@
         <v>35190</v>
       </c>
       <c r="B22" t="n">
-        <v>146682</v>
+        <v>178030</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -4384,7 +4384,7 @@
         <v>35190</v>
       </c>
       <c r="B23" t="n">
-        <v>146683</v>
+        <v>178031</v>
       </c>
       <c r="C23" t="s">
         <v>242</v>
@@ -4453,7 +4453,7 @@
         <v>35190</v>
       </c>
       <c r="B24" t="n">
-        <v>146684</v>
+        <v>178032</v>
       </c>
       <c r="C24" t="s">
         <v>252</v>
@@ -4524,7 +4524,7 @@
         <v>35190</v>
       </c>
       <c r="B25" t="n">
-        <v>146685</v>
+        <v>178033</v>
       </c>
       <c r="C25" t="s">
         <v>261</v>
@@ -4654,7 +4654,7 @@
         <v>35190</v>
       </c>
       <c r="B27" t="n">
-        <v>146686</v>
+        <v>178034</v>
       </c>
       <c r="C27" t="s">
         <v>280</v>
@@ -4725,7 +4725,7 @@
         <v>35190</v>
       </c>
       <c r="B28" t="n">
-        <v>146687</v>
+        <v>178035</v>
       </c>
       <c r="C28" t="s">
         <v>290</v>
@@ -4859,7 +4859,7 @@
         <v>35190</v>
       </c>
       <c r="B30" t="n">
-        <v>146688</v>
+        <v>178036</v>
       </c>
       <c r="C30" t="s">
         <v>310</v>
@@ -4928,7 +4928,7 @@
         <v>35190</v>
       </c>
       <c r="B31" t="n">
-        <v>146689</v>
+        <v>178037</v>
       </c>
       <c r="C31" t="s">
         <v>320</v>
@@ -4997,7 +4997,7 @@
         <v>35190</v>
       </c>
       <c r="B32" t="n">
-        <v>146690</v>
+        <v>178038</v>
       </c>
       <c r="C32" t="s">
         <v>330</v>
@@ -5068,7 +5068,7 @@
         <v>35190</v>
       </c>
       <c r="B33" t="n">
-        <v>146691</v>
+        <v>178039</v>
       </c>
       <c r="C33" t="s">
         <v>339</v>
@@ -5139,7 +5139,7 @@
         <v>35190</v>
       </c>
       <c r="B34" t="n">
-        <v>146692</v>
+        <v>178040</v>
       </c>
       <c r="C34" t="s">
         <v>349</v>
@@ -5208,7 +5208,7 @@
         <v>35190</v>
       </c>
       <c r="B35" t="n">
-        <v>146693</v>
+        <v>178041</v>
       </c>
       <c r="C35" t="s">
         <v>358</v>
@@ -5279,7 +5279,7 @@
         <v>35190</v>
       </c>
       <c r="B36" t="n">
-        <v>146694</v>
+        <v>178042</v>
       </c>
       <c r="C36" t="s">
         <v>368</v>
@@ -5344,7 +5344,7 @@
         <v>35190</v>
       </c>
       <c r="B37" t="n">
-        <v>146695</v>
+        <v>178043</v>
       </c>
       <c r="C37" t="s">
         <v>377</v>
@@ -5409,7 +5409,7 @@
         <v>35190</v>
       </c>
       <c r="B38" t="n">
-        <v>146696</v>
+        <v>178044</v>
       </c>
       <c r="C38" t="s">
         <v>386</v>
@@ -5610,7 +5610,7 @@
         <v>35190</v>
       </c>
       <c r="B41" t="n">
-        <v>146697</v>
+        <v>178045</v>
       </c>
       <c r="C41" t="s">
         <v>413</v>
@@ -5671,7 +5671,7 @@
         <v>35190</v>
       </c>
       <c r="B42" t="n">
-        <v>146698</v>
+        <v>178046</v>
       </c>
       <c r="C42" t="s">
         <v>420</v>
@@ -5738,7 +5738,7 @@
         <v>35190</v>
       </c>
       <c r="B43" t="n">
-        <v>146699</v>
+        <v>178047</v>
       </c>
       <c r="C43" t="s">
         <v>428</v>
@@ -5872,7 +5872,7 @@
         <v>35190</v>
       </c>
       <c r="B45" t="n">
-        <v>146700</v>
+        <v>178048</v>
       </c>
       <c r="C45" t="s">
         <v>442</v>
@@ -6004,7 +6004,7 @@
         <v>35190</v>
       </c>
       <c r="B47" t="n">
-        <v>146701</v>
+        <v>178049</v>
       </c>
       <c r="C47" t="s">
         <v>454</v>
@@ -6071,7 +6071,7 @@
         <v>35190</v>
       </c>
       <c r="B48" t="n">
-        <v>146702</v>
+        <v>178050</v>
       </c>
       <c r="C48" t="s">
         <v>461</v>
@@ -6132,7 +6132,7 @@
         <v>35190</v>
       </c>
       <c r="B49" t="n">
-        <v>146703</v>
+        <v>178051</v>
       </c>
       <c r="C49" t="s">
         <v>468</v>
@@ -6193,7 +6193,7 @@
         <v>35190</v>
       </c>
       <c r="B50" t="n">
-        <v>146704</v>
+        <v>178052</v>
       </c>
       <c r="C50" t="s">
         <v>474</v>
@@ -6260,7 +6260,7 @@
         <v>35190</v>
       </c>
       <c r="B51" t="n">
-        <v>146705</v>
+        <v>178053</v>
       </c>
       <c r="C51" t="s">
         <v>481</v>
@@ -6321,7 +6321,7 @@
         <v>35190</v>
       </c>
       <c r="B52" t="n">
-        <v>146706</v>
+        <v>178054</v>
       </c>
       <c r="C52" t="s">
         <v>487</v>
@@ -6388,7 +6388,7 @@
         <v>35190</v>
       </c>
       <c r="B53" t="n">
-        <v>146707</v>
+        <v>178055</v>
       </c>
       <c r="C53" t="s">
         <v>494</v>
@@ -6455,7 +6455,7 @@
         <v>35190</v>
       </c>
       <c r="B54" t="n">
-        <v>146708</v>
+        <v>178056</v>
       </c>
       <c r="C54" t="s">
         <v>501</v>
@@ -6522,7 +6522,7 @@
         <v>35190</v>
       </c>
       <c r="B55" t="n">
-        <v>146709</v>
+        <v>178057</v>
       </c>
       <c r="C55" t="s">
         <v>507</v>
@@ -6589,7 +6589,7 @@
         <v>35190</v>
       </c>
       <c r="B56" t="n">
-        <v>146710</v>
+        <v>178058</v>
       </c>
       <c r="C56" t="s">
         <v>514</v>
@@ -6646,7 +6646,7 @@
         <v>35190</v>
       </c>
       <c r="B57" t="n">
-        <v>146711</v>
+        <v>178059</v>
       </c>
       <c r="C57" t="s">
         <v>520</v>
@@ -6715,7 +6715,7 @@
         <v>35190</v>
       </c>
       <c r="B58" t="n">
-        <v>146712</v>
+        <v>178060</v>
       </c>
       <c r="C58" t="s">
         <v>530</v>
@@ -6786,7 +6786,7 @@
         <v>35190</v>
       </c>
       <c r="B59" t="n">
-        <v>146713</v>
+        <v>178061</v>
       </c>
       <c r="C59" t="s">
         <v>538</v>
@@ -6857,7 +6857,7 @@
         <v>35190</v>
       </c>
       <c r="B60" t="n">
-        <v>146714</v>
+        <v>178062</v>
       </c>
       <c r="C60" t="s">
         <v>547</v>
@@ -7064,7 +7064,7 @@
         <v>35190</v>
       </c>
       <c r="B63" t="n">
-        <v>146715</v>
+        <v>178063</v>
       </c>
       <c r="C63" t="s">
         <v>574</v>
@@ -7121,7 +7121,7 @@
         <v>35190</v>
       </c>
       <c r="B64" t="n">
-        <v>146716</v>
+        <v>178064</v>
       </c>
       <c r="C64" t="s">
         <v>580</v>
@@ -7263,7 +7263,7 @@
         <v>35190</v>
       </c>
       <c r="B66" t="n">
-        <v>146717</v>
+        <v>178065</v>
       </c>
       <c r="C66" t="s">
         <v>595</v>
@@ -7334,7 +7334,7 @@
         <v>35190</v>
       </c>
       <c r="B67" t="n">
-        <v>146718</v>
+        <v>178066</v>
       </c>
       <c r="C67" t="s">
         <v>601</v>
@@ -7466,7 +7466,7 @@
         <v>35190</v>
       </c>
       <c r="B69" t="n">
-        <v>146719</v>
+        <v>178067</v>
       </c>
       <c r="C69" t="s">
         <v>615</v>
@@ -7691,7 +7691,7 @@
         <v>35190</v>
       </c>
       <c r="B72" t="n">
-        <v>146720</v>
+        <v>178068</v>
       </c>
       <c r="C72" t="s">
         <v>644</v>
@@ -7902,7 +7902,7 @@
         <v>35190</v>
       </c>
       <c r="B75" t="n">
-        <v>146721</v>
+        <v>178069</v>
       </c>
       <c r="C75" t="s">
         <v>668</v>
@@ -7977,7 +7977,7 @@
         <v>35190</v>
       </c>
       <c r="B76" t="n">
-        <v>146722</v>
+        <v>178070</v>
       </c>
       <c r="C76" t="s">
         <v>677</v>
@@ -8044,7 +8044,7 @@
         <v>35190</v>
       </c>
       <c r="B77" t="n">
-        <v>146723</v>
+        <v>178071</v>
       </c>
       <c r="C77" t="s">
         <v>684</v>
@@ -8119,7 +8119,7 @@
         <v>35190</v>
       </c>
       <c r="B78" t="n">
-        <v>146724</v>
+        <v>178072</v>
       </c>
       <c r="C78" t="s">
         <v>694</v>
@@ -8190,7 +8190,7 @@
         <v>35190</v>
       </c>
       <c r="B79" t="n">
-        <v>146725</v>
+        <v>178073</v>
       </c>
       <c r="C79" t="s">
         <v>701</v>
@@ -8261,7 +8261,7 @@
         <v>35190</v>
       </c>
       <c r="B80" t="n">
-        <v>146726</v>
+        <v>178074</v>
       </c>
       <c r="C80" t="s">
         <v>709</v>
@@ -8332,7 +8332,7 @@
         <v>35190</v>
       </c>
       <c r="B81" t="n">
-        <v>146727</v>
+        <v>178075</v>
       </c>
       <c r="C81" t="s">
         <v>718</v>
@@ -8407,7 +8407,7 @@
         <v>35190</v>
       </c>
       <c r="B82" t="n">
-        <v>146728</v>
+        <v>178076</v>
       </c>
       <c r="C82" t="s">
         <v>727</v>
@@ -8482,7 +8482,7 @@
         <v>35190</v>
       </c>
       <c r="B83" t="n">
-        <v>146729</v>
+        <v>178077</v>
       </c>
       <c r="C83" t="s">
         <v>736</v>
@@ -8557,7 +8557,7 @@
         <v>35190</v>
       </c>
       <c r="B84" t="n">
-        <v>146730</v>
+        <v>178078</v>
       </c>
       <c r="C84" t="s">
         <v>746</v>
@@ -8632,7 +8632,7 @@
         <v>35190</v>
       </c>
       <c r="B85" t="n">
-        <v>146731</v>
+        <v>178079</v>
       </c>
       <c r="C85" t="s">
         <v>755</v>
@@ -8782,7 +8782,7 @@
         <v>35190</v>
       </c>
       <c r="B87" t="n">
-        <v>146732</v>
+        <v>178080</v>
       </c>
       <c r="C87" t="s">
         <v>774</v>
@@ -8857,7 +8857,7 @@
         <v>35190</v>
       </c>
       <c r="B88" t="n">
-        <v>146733</v>
+        <v>178081</v>
       </c>
       <c r="C88" t="s">
         <v>782</v>
@@ -8928,7 +8928,7 @@
         <v>35190</v>
       </c>
       <c r="B89" t="n">
-        <v>146734</v>
+        <v>178082</v>
       </c>
       <c r="C89" t="s">
         <v>789</v>
